--- a/data/source/a-level/alevel_2020_uk.xlsx
+++ b/data/source/a-level/alevel_2020_uk.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jointcouncilqualifications.sharepoint.com/sites/JCQData/Shared Documents/Operations/Results/Summer Exam Series/2020/Website Files/A Level and AS Results Summer 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Results day\microsite\data\source\a-level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_D0150C2CDE97C8209F595A28993B21E6C74DCFE9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFAED3C5-AC34-499C-8736-FCEF326A6F32}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19545" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="All UK All Ages cum %" sheetId="1" r:id="rId1"/>
@@ -18,17 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'All UK All Ages cum %'!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -233,16 +222,16 @@
     <t>(-)</t>
   </si>
   <si>
-    <t>Communication Studies (4)</t>
+    <t xml:space="preserve">(4) - Very low entry figures (-) not published, but are counted in 'All Subjects'  </t>
   </si>
   <si>
-    <t xml:space="preserve">(4) - Very low entry figures (-) not published, but are counted in 'All Subjects'  </t>
+    <t>Communication Studies (4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="##0.0"/>
@@ -397,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -451,14 +440,17 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,17 +773,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="F309" sqref="F309"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -799,38 +791,38 @@
     <col min="5" max="11" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
@@ -844,38 +836,53 @@
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="23" t="s">
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -898,7 +905,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -929,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -937,34 +944,34 @@
         <v>20</v>
       </c>
       <c r="C12" s="9">
-        <v>10570</v>
+        <v>10571</v>
       </c>
       <c r="D12" s="13">
-        <v>3.0350190083498916</v>
+        <v>3.0330505240626979</v>
       </c>
       <c r="E12" s="11">
-        <v>10.066225165562914</v>
+        <v>13.48973607038123</v>
       </c>
       <c r="F12" s="11">
-        <v>24.673604541154209</v>
+        <v>32.882414151925076</v>
       </c>
       <c r="G12" s="11">
-        <v>54.872280037842948</v>
+        <v>64.989121180588398</v>
       </c>
       <c r="H12" s="11">
-        <v>80.359508041627251</v>
+        <v>89.140100274335438</v>
       </c>
       <c r="I12" s="11">
-        <v>93.547776726584672</v>
+        <v>97.748557373947591</v>
       </c>
       <c r="J12" s="11">
-        <v>98.751182592242188</v>
+        <v>99.848642512534298</v>
       </c>
       <c r="K12" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="15">
@@ -995,7 +1002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1003,34 +1010,34 @@
         <v>22</v>
       </c>
       <c r="C14" s="9">
-        <v>31267</v>
+        <v>31275</v>
       </c>
       <c r="D14" s="13">
-        <v>7.2328928101339613</v>
+        <v>7.2311804338477046</v>
       </c>
       <c r="E14" s="11">
-        <v>14.008379441583779</v>
+        <v>18.874500399680255</v>
       </c>
       <c r="F14" s="11">
-        <v>33.517766335113699</v>
+        <v>44.434852118305358</v>
       </c>
       <c r="G14" s="11">
-        <v>65.938529439984649</v>
+        <v>76.757793764988008</v>
       </c>
       <c r="H14" s="11">
-        <v>88.342341766079258</v>
+        <v>94.823341326938447</v>
       </c>
       <c r="I14" s="11">
-        <v>96.72817987015064</v>
+        <v>98.986410871302951</v>
       </c>
       <c r="J14" s="11">
-        <v>99.37314101128986</v>
+        <v>99.897681854516378</v>
       </c>
       <c r="K14" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15">
@@ -1061,7 +1068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1069,34 +1076,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="9">
-        <v>41837</v>
+        <v>41846</v>
       </c>
       <c r="D16" s="13">
-        <v>5.3598904372134255</v>
+        <v>5.3578036154867492</v>
       </c>
       <c r="E16" s="11">
-        <v>13.012405287185983</v>
+        <v>17.514218802275007</v>
       </c>
       <c r="F16" s="11">
-        <v>31.283313813131919</v>
+        <v>41.516512928356356</v>
       </c>
       <c r="G16" s="11">
-        <v>63.142672753782534</v>
+        <v>73.784830091287105</v>
       </c>
       <c r="H16" s="11">
-        <v>86.325501350479243</v>
+        <v>93.387659513454096</v>
       </c>
       <c r="I16" s="11">
-        <v>95.924659989961043</v>
+        <v>98.673708359221905</v>
       </c>
       <c r="J16" s="11">
-        <v>99.216004971675787</v>
+        <v>99.885293695932702</v>
       </c>
       <c r="K16" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="15">
@@ -1127,7 +1134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="15"/>
@@ -1140,7 +1147,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1148,34 +1155,34 @@
         <v>20</v>
       </c>
       <c r="C19" s="9">
-        <v>23392</v>
+        <v>23426</v>
       </c>
       <c r="D19" s="13">
-        <v>6.716666475243203</v>
+        <v>6.7214304774092115</v>
       </c>
       <c r="E19" s="11">
-        <v>7.4769151846785231</v>
+        <v>12.682489541535046</v>
       </c>
       <c r="F19" s="11">
-        <v>24.384404924760602</v>
+        <v>35.520361990950228</v>
       </c>
       <c r="G19" s="11">
-        <v>45.344562243502054</v>
+        <v>59.907794757961241</v>
       </c>
       <c r="H19" s="11">
-        <v>67.869357045143644</v>
+        <v>82.399897549731065</v>
       </c>
       <c r="I19" s="11">
-        <v>86.713406292749667</v>
+        <v>94.894561598224186</v>
       </c>
       <c r="J19" s="11">
-        <v>96.763850889192881</v>
+        <v>99.581661401861183</v>
       </c>
       <c r="K19" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="15">
@@ -1206,7 +1213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1214,34 +1221,34 @@
         <v>22</v>
       </c>
       <c r="C21" s="9">
-        <v>41665</v>
+        <v>41694</v>
       </c>
       <c r="D21" s="13">
-        <v>9.6382281297928003</v>
+        <v>9.6401866349750982</v>
       </c>
       <c r="E21" s="11">
-        <v>7.7187087483499344</v>
+        <v>13.596680577541134</v>
       </c>
       <c r="F21" s="11">
-        <v>26.125045001800075</v>
+        <v>38.624262483810625</v>
       </c>
       <c r="G21" s="11">
-        <v>48.090723628945156</v>
+        <v>64.095553317024041</v>
       </c>
       <c r="H21" s="11">
-        <v>71.210848433937358</v>
+        <v>85.475128315824819</v>
       </c>
       <c r="I21" s="11">
-        <v>88.729149165966632</v>
+        <v>96.07137717657217</v>
       </c>
       <c r="J21" s="11">
-        <v>97.393495739829589</v>
+        <v>99.740969923730034</v>
       </c>
       <c r="K21" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="15">
@@ -1272,7 +1279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1280,34 +1287,34 @@
         <v>23</v>
       </c>
       <c r="C23" s="9">
-        <v>65057</v>
+        <v>65120</v>
       </c>
       <c r="D23" s="13">
-        <v>8.3346892027103721</v>
+        <v>8.3377185738301645</v>
       </c>
       <c r="E23" s="11">
-        <v>7.6317690640515243</v>
+        <v>13.267813267813267</v>
       </c>
       <c r="F23" s="11">
-        <v>25.499177644219685</v>
+        <v>37.507678132678137</v>
       </c>
       <c r="G23" s="11">
-        <v>47.103309405598168</v>
+        <v>62.589066339066335</v>
       </c>
       <c r="H23" s="11">
-        <v>70.009376393009205</v>
+        <v>84.36885749385749</v>
       </c>
       <c r="I23" s="11">
-        <v>88.004365402646911</v>
+        <v>95.648034398034397</v>
       </c>
       <c r="J23" s="11">
-        <v>97.167099620332948</v>
+        <v>99.683660933660931</v>
       </c>
       <c r="K23" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="15">
@@ -1338,7 +1345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="15"/>
@@ -1351,7 +1358,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -1359,34 +1366,34 @@
         <v>20</v>
       </c>
       <c r="C26" s="9">
-        <v>21473</v>
+        <v>21479</v>
       </c>
       <c r="D26" s="13">
-        <v>6.1656540365465675</v>
+        <v>6.1627937003445936</v>
       </c>
       <c r="E26" s="11">
-        <v>2.8966609230196063</v>
+        <v>5.6147865356860196</v>
       </c>
       <c r="F26" s="11">
-        <v>13.905835234946212</v>
+        <v>23.306485404348436</v>
       </c>
       <c r="G26" s="11">
-        <v>43.058724910352538</v>
+        <v>55.402951720284932</v>
       </c>
       <c r="H26" s="11">
-        <v>74.484236017324079</v>
+        <v>85.143628660552167</v>
       </c>
       <c r="I26" s="11">
-        <v>92.320588646206872</v>
+        <v>96.880674146841102</v>
       </c>
       <c r="J26" s="11">
-        <v>98.384017137800967</v>
+        <v>99.711345965827093</v>
       </c>
       <c r="K26" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="15">
@@ -1417,7 +1424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1425,34 +1432,34 @@
         <v>22</v>
       </c>
       <c r="C28" s="9">
-        <v>14708</v>
+        <v>14709</v>
       </c>
       <c r="D28" s="13">
-        <v>3.4023535181325455</v>
+        <v>3.4009091287439133</v>
       </c>
       <c r="E28" s="11">
-        <v>4.4057655697579552</v>
+        <v>8.2942416207763952</v>
       </c>
       <c r="F28" s="11">
-        <v>18.615719336415555</v>
+        <v>29.247399551295128</v>
       </c>
       <c r="G28" s="11">
-        <v>48.980146858852322</v>
+        <v>61.166632673873131</v>
       </c>
       <c r="H28" s="11">
-        <v>77.563230894751158</v>
+        <v>87.599428921068736</v>
       </c>
       <c r="I28" s="11">
-        <v>93.166983954310581</v>
+        <v>97.26697940036712</v>
       </c>
       <c r="J28" s="11">
-        <v>98.585803644275231</v>
+        <v>99.76205044530559</v>
       </c>
       <c r="K28" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="15">
@@ -1483,7 +1490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -1491,34 +1498,34 @@
         <v>23</v>
       </c>
       <c r="C30" s="9">
-        <v>36181</v>
+        <v>36188</v>
       </c>
       <c r="D30" s="13">
-        <v>4.635279678486004</v>
+        <v>4.6333746890320331</v>
       </c>
       <c r="E30" s="11">
-        <v>3.5101296260468198</v>
+        <v>6.7038797391400466</v>
       </c>
       <c r="F30" s="11">
-        <v>15.820458251568503</v>
+        <v>25.721233558085554</v>
       </c>
       <c r="G30" s="11">
-        <v>45.465852242889916</v>
+        <v>57.74566154526363</v>
       </c>
       <c r="H30" s="11">
-        <v>75.735883474751944</v>
+        <v>86.141814966287171</v>
       </c>
       <c r="I30" s="11">
-        <v>92.664658246040744</v>
+        <v>97.037692052614119</v>
       </c>
       <c r="J30" s="11">
-        <v>98.466045714601591</v>
+        <v>99.731955344313022</v>
       </c>
       <c r="K30" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="15">
@@ -1549,7 +1556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="15"/>
@@ -1562,7 +1569,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
@@ -1570,34 +1577,34 @@
         <v>20</v>
       </c>
       <c r="C33" s="9">
-        <v>25568</v>
+        <v>25605</v>
       </c>
       <c r="D33" s="13">
-        <v>7.3414726589867572</v>
+        <v>7.3466331159422378</v>
       </c>
       <c r="E33" s="11">
-        <v>9.992959949937422</v>
+        <v>16.34446397188049</v>
       </c>
       <c r="F33" s="11">
-        <v>32.853566958698373</v>
+        <v>43.534465924624101</v>
       </c>
       <c r="G33" s="11">
-        <v>55.162703379224034</v>
+        <v>67.115797695762552</v>
       </c>
       <c r="H33" s="11">
-        <v>74.835732165206508</v>
+        <v>85.674672915446209</v>
       </c>
       <c r="I33" s="11">
-        <v>89.123122653316642</v>
+        <v>95.508689709041207</v>
       </c>
       <c r="J33" s="11">
-        <v>97.047090112640802</v>
+        <v>99.562585432532714</v>
       </c>
       <c r="K33" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="15">
@@ -1628,7 +1635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
@@ -1636,34 +1643,34 @@
         <v>22</v>
       </c>
       <c r="C35" s="9">
-        <v>30458</v>
+        <v>30495</v>
       </c>
       <c r="D35" s="13">
-        <v>7.04574948703298</v>
+        <v>7.0508344470083379</v>
       </c>
       <c r="E35" s="11">
-        <v>7.452885941296211</v>
+        <v>13.477619281849485</v>
       </c>
       <c r="F35" s="11">
-        <v>29.762295620198305</v>
+        <v>42.361042793900637</v>
       </c>
       <c r="G35" s="11">
-        <v>54.412633790793883</v>
+        <v>68.13903918675193</v>
       </c>
       <c r="H35" s="11">
-        <v>75.851992908267121</v>
+        <v>87.365141826528941</v>
       </c>
       <c r="I35" s="11">
-        <v>90.419594195285313</v>
+        <v>96.484669617970155</v>
       </c>
       <c r="J35" s="11">
-        <v>97.524459912009988</v>
+        <v>99.724545007378268</v>
       </c>
       <c r="K35" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="15">
@@ -1694,7 +1701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
@@ -1702,34 +1709,34 @@
         <v>23</v>
       </c>
       <c r="C37" s="9">
-        <v>56026</v>
+        <v>56100</v>
       </c>
       <c r="D37" s="13">
-        <v>7.1776949024863024</v>
+        <v>7.1828318794820687</v>
       </c>
       <c r="E37" s="11">
-        <v>8.6120729661228719</v>
+        <v>14.786096256684491</v>
       </c>
       <c r="F37" s="11">
-        <v>31.173026808981547</v>
+        <v>42.896613190730839</v>
       </c>
       <c r="G37" s="11">
-        <v>54.754935208653123</v>
+        <v>67.672014260249554</v>
       </c>
       <c r="H37" s="11">
-        <v>75.388212615571334</v>
+        <v>86.593582887700535</v>
       </c>
       <c r="I37" s="11">
-        <v>89.827937029236423</v>
+        <v>96.039215686274517</v>
       </c>
       <c r="J37" s="11">
-        <v>97.306607646449862</v>
+        <v>99.650623885917994</v>
       </c>
       <c r="K37" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="15">
@@ -1760,7 +1767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="15"/>
@@ -1773,7 +1780,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>27</v>
       </c>
@@ -1784,31 +1791,31 @@
         <v>1847</v>
       </c>
       <c r="D40" s="13">
-        <v>0.53033870467570954</v>
+        <v>0.52994459539720018</v>
       </c>
       <c r="E40" s="11">
-        <v>16.404981050351921</v>
+        <v>20.628045479155389</v>
       </c>
       <c r="F40" s="11">
-        <v>40.443963183540873</v>
+        <v>47.698971304818627</v>
       </c>
       <c r="G40" s="11">
-        <v>67.893881970763402</v>
+        <v>74.986464537087173</v>
       </c>
       <c r="H40" s="11">
-        <v>88.576069301570115</v>
+        <v>92.90741743367623</v>
       </c>
       <c r="I40" s="11">
-        <v>97.292907417433668</v>
+        <v>98.484028153762864</v>
       </c>
       <c r="J40" s="11">
-        <v>99.566865186789386</v>
+        <v>100</v>
       </c>
       <c r="K40" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="15">
@@ -1839,7 +1846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>21</v>
       </c>
@@ -1850,31 +1857,31 @@
         <v>2930</v>
       </c>
       <c r="D42" s="13">
-        <v>0.67778731357957289</v>
+        <v>0.67745351466582804</v>
       </c>
       <c r="E42" s="11">
-        <v>16.928327645051194</v>
+        <v>21.808873720136518</v>
       </c>
       <c r="F42" s="11">
-        <v>46.894197952218434</v>
+        <v>56.00682593856655</v>
       </c>
       <c r="G42" s="11">
-        <v>75.529010238907844</v>
+        <v>82.047781569965878</v>
       </c>
       <c r="H42" s="11">
-        <v>92.150170648464169</v>
+        <v>95.324232081911262</v>
       </c>
       <c r="I42" s="11">
-        <v>97.74744027303754</v>
+        <v>99.044368600682603</v>
       </c>
       <c r="J42" s="11">
-        <v>99.488054607508531</v>
+        <v>99.931740614334473</v>
       </c>
       <c r="K42" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="15">
@@ -1905,7 +1912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>21</v>
       </c>
@@ -1916,31 +1923,31 @@
         <v>4777</v>
       </c>
       <c r="D44" s="13">
-        <v>0.61199886747540533</v>
+        <v>0.61162901761650335</v>
       </c>
       <c r="E44" s="11">
-        <v>16.72597864768683</v>
+        <v>21.352313167259787</v>
       </c>
       <c r="F44" s="11">
-        <v>44.40025120368432</v>
+        <v>52.794640988067819</v>
       </c>
       <c r="G44" s="11">
-        <v>72.576931128323224</v>
+        <v>79.317563324262082</v>
       </c>
       <c r="H44" s="11">
-        <v>90.768264601214156</v>
+        <v>94.389784383504292</v>
       </c>
       <c r="I44" s="11">
-        <v>97.571697718233196</v>
+        <v>98.827716139836724</v>
       </c>
       <c r="J44" s="11">
-        <v>99.518526271718656</v>
+        <v>99.958132719279874</v>
       </c>
       <c r="K44" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="15">
@@ -1971,7 +1978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="15"/>
@@ -1984,9 +1991,9 @@
       <c r="J46" s="16"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="20" t="s">
-        <v>66</v>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>20</v>
@@ -2019,10 +2026,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="17">
@@ -2050,7 +2057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="15">
@@ -2116,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>21</v>
       </c>
@@ -2151,10 +2158,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="17">
@@ -2182,7 +2189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="15"/>
@@ -2195,7 +2202,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>28</v>
       </c>
@@ -2203,34 +2210,34 @@
         <v>20</v>
       </c>
       <c r="C54" s="9">
-        <v>10629</v>
+        <v>10631</v>
       </c>
       <c r="D54" s="13">
-        <v>3.0519599848392618</v>
+        <v>3.0502658330631487</v>
       </c>
       <c r="E54" s="11">
-        <v>7.5453946749459027</v>
+        <v>13.056156523375034</v>
       </c>
       <c r="F54" s="11">
-        <v>25.797346881174143</v>
+        <v>35.245978741416614</v>
       </c>
       <c r="G54" s="11">
-        <v>48.50879668830558</v>
+        <v>60.906782052488005</v>
       </c>
       <c r="H54" s="11">
-        <v>71.709474080346226</v>
+        <v>84.056062458846768</v>
       </c>
       <c r="I54" s="11">
-        <v>88.823031329381891</v>
+        <v>95.889380114758723</v>
       </c>
       <c r="J54" s="11">
-        <v>97.111675604478307</v>
+        <v>99.614335434107787</v>
       </c>
       <c r="K54" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="15">
@@ -2261,7 +2268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
@@ -2272,31 +2279,31 @@
         <v>1797</v>
       </c>
       <c r="D56" s="13">
-        <v>0.41569413054692572</v>
+        <v>0.41548940814146518</v>
       </c>
       <c r="E56" s="11">
-        <v>11.018363939899833</v>
+        <v>17.807456872565385</v>
       </c>
       <c r="F56" s="11">
-        <v>33.889816360601003</v>
+        <v>44.462993878686703</v>
       </c>
       <c r="G56" s="11">
-        <v>57.874234835837512</v>
+        <v>69.170840289371171</v>
       </c>
       <c r="H56" s="11">
-        <v>78.130217028380628</v>
+        <v>88.647746243739562</v>
       </c>
       <c r="I56" s="11">
-        <v>91.708402893711735</v>
+        <v>97.050639955481358</v>
       </c>
       <c r="J56" s="11">
-        <v>98.163606010016693</v>
+        <v>99.833055091819702</v>
       </c>
       <c r="K56" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="15">
@@ -2327,7 +2334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>21</v>
       </c>
@@ -2335,34 +2342,34 @@
         <v>23</v>
       </c>
       <c r="C58" s="9">
-        <v>12426</v>
+        <v>12428</v>
       </c>
       <c r="D58" s="13">
-        <v>1.5919401145592187</v>
+        <v>1.5912341283102163</v>
       </c>
       <c r="E58" s="11">
-        <v>8.0476420408820228</v>
+        <v>13.743160605085292</v>
       </c>
       <c r="F58" s="11">
-        <v>26.967648478995653</v>
+        <v>36.57869327325394</v>
       </c>
       <c r="G58" s="11">
-        <v>49.863190085305007</v>
+        <v>62.1017058255552</v>
       </c>
       <c r="H58" s="11">
-        <v>72.638017061001122</v>
+        <v>84.719987125844867</v>
       </c>
       <c r="I58" s="11">
-        <v>89.240302591340736</v>
+        <v>96.057289990344387</v>
       </c>
       <c r="J58" s="11">
-        <v>97.263801706100111</v>
+        <v>99.64596073382684</v>
       </c>
       <c r="K58" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="15">
@@ -2393,7 +2400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2406,7 +2413,7 @@
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -2441,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="15">
@@ -2472,7 +2479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>21</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="15">
@@ -2538,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>21</v>
       </c>
@@ -2573,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="15">
@@ -2604,7 +2611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="15"/>
@@ -2617,7 +2624,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -2628,31 +2635,31 @@
         <v>7096</v>
       </c>
       <c r="D68" s="13">
-        <v>2.037511341840192</v>
+        <v>2.035997211119942</v>
       </c>
       <c r="E68" s="11">
-        <v>6.9334836527621198</v>
+        <v>9.1319052987598646</v>
       </c>
       <c r="F68" s="11">
-        <v>22.590191657271703</v>
+        <v>28.988162344983088</v>
       </c>
       <c r="G68" s="11">
-        <v>48.788049605411501</v>
+        <v>57.595828635851184</v>
       </c>
       <c r="H68" s="11">
-        <v>76.817925591882755</v>
+        <v>84.117812852311161</v>
       </c>
       <c r="I68" s="11">
-        <v>92.728297632468994</v>
+        <v>96.025930101465619</v>
       </c>
       <c r="J68" s="11">
-        <v>98.717587373167987</v>
+        <v>99.732243517474643</v>
       </c>
       <c r="K68" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="15">
@@ -2683,7 +2690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
@@ -2694,31 +2701,31 @@
         <v>3492</v>
       </c>
       <c r="D70" s="13">
-        <v>0.80779293481906789</v>
+        <v>0.80739511031162858</v>
       </c>
       <c r="E70" s="11">
-        <v>10.767468499427263</v>
+        <v>13.602520045819015</v>
       </c>
       <c r="F70" s="11">
-        <v>33.419243986254294</v>
+        <v>40.664375715922105</v>
       </c>
       <c r="G70" s="11">
-        <v>61.025200458190156</v>
+        <v>70.131729667812138</v>
       </c>
       <c r="H70" s="11">
-        <v>85.710194730813285</v>
+        <v>90.893470790378004</v>
       </c>
       <c r="I70" s="11">
-        <v>95.704467353951898</v>
+        <v>97.880870561282933</v>
       </c>
       <c r="J70" s="11">
-        <v>99.284077892325314</v>
+        <v>99.885452462772051</v>
       </c>
       <c r="K70" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="15">
@@ -2749,7 +2756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>21</v>
       </c>
@@ -2760,31 +2767,31 @@
         <v>10588</v>
       </c>
       <c r="D72" s="13">
-        <v>1.3564672407011915</v>
+        <v>1.3556474855607155</v>
       </c>
       <c r="E72" s="11">
-        <v>8.1979599546656594</v>
+        <v>10.606346807706837</v>
       </c>
       <c r="F72" s="11">
-        <v>26.161692482055155</v>
+        <v>32.839063090290892</v>
       </c>
       <c r="G72" s="11">
-        <v>52.823951643369845</v>
+        <v>61.730260672459394</v>
       </c>
       <c r="H72" s="11">
-        <v>79.750661125802793</v>
+        <v>86.352474499433313</v>
       </c>
       <c r="I72" s="11">
-        <v>93.709860219115981</v>
+        <v>96.637703060068006</v>
       </c>
       <c r="J72" s="11">
-        <v>98.904420098224406</v>
+        <v>99.782772950510008</v>
       </c>
       <c r="K72" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="15">
@@ -2815,7 +2822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="15"/>
@@ -2828,7 +2835,7 @@
       <c r="J74" s="16"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>31</v>
       </c>
@@ -2836,34 +2843,34 @@
         <v>20</v>
       </c>
       <c r="C75" s="9">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="D75" s="13">
-        <v>0.77095799786371411</v>
+        <v>0.77095892140350675</v>
       </c>
       <c r="E75" s="11">
-        <v>6.7411545623836124</v>
+        <v>10.048381094157053</v>
       </c>
       <c r="F75" s="11">
-        <v>22.532588454376164</v>
+        <v>32.675846669147752</v>
       </c>
       <c r="G75" s="11">
-        <v>53.631284916201118</v>
+        <v>67.13807219947897</v>
       </c>
       <c r="H75" s="11">
-        <v>82.569832402234638</v>
+        <v>91.663565314477111</v>
       </c>
       <c r="I75" s="11">
-        <v>95.865921787709496</v>
+        <v>98.474134722739109</v>
       </c>
       <c r="J75" s="11">
-        <v>99.441340782122893</v>
+        <v>99.925567547450683</v>
       </c>
       <c r="K75" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="15">
@@ -2894,7 +2901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
@@ -2902,34 +2909,34 @@
         <v>22</v>
       </c>
       <c r="C77" s="9">
-        <v>6902</v>
+        <v>6903</v>
       </c>
       <c r="D77" s="13">
-        <v>1.5966170779270348</v>
+        <v>1.5960619835283998</v>
       </c>
       <c r="E77" s="11">
-        <v>8.7800637496377849</v>
+        <v>13.51586266840504</v>
       </c>
       <c r="F77" s="11">
-        <v>30.020283975659229</v>
+        <v>42.604664638562944</v>
       </c>
       <c r="G77" s="11">
-        <v>64.140828745291216</v>
+        <v>76.662320730117344</v>
       </c>
       <c r="H77" s="11">
-        <v>89.437844103158497</v>
+        <v>95.755468636824574</v>
       </c>
       <c r="I77" s="11">
-        <v>97.870182555780943</v>
+        <v>99.377082427929892</v>
       </c>
       <c r="J77" s="11">
-        <v>99.811648797450019</v>
+        <v>99.956540634506737</v>
       </c>
       <c r="K77" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="15">
@@ -2960,7 +2967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -2968,34 +2975,34 @@
         <v>23</v>
       </c>
       <c r="C79" s="9">
-        <v>9587</v>
+        <v>9590</v>
       </c>
       <c r="D79" s="13">
-        <v>1.2282254851343335</v>
+        <v>1.2278673391128883</v>
       </c>
       <c r="E79" s="11">
-        <v>8.2090330656096793</v>
+        <v>12.544316996871741</v>
       </c>
       <c r="F79" s="11">
-        <v>27.923229373109422</v>
+        <v>39.822732012513036</v>
       </c>
       <c r="G79" s="11">
-        <v>61.197454886825909</v>
+        <v>73.993743482794585</v>
       </c>
       <c r="H79" s="11">
-        <v>87.514342338583489</v>
+        <v>94.608967674661102</v>
       </c>
       <c r="I79" s="11">
-        <v>97.308855742150826</v>
+        <v>99.12408759124088</v>
       </c>
       <c r="J79" s="11">
-        <v>99.707937832481491</v>
+        <v>99.947862356621471</v>
       </c>
       <c r="K79" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="15">
@@ -3026,7 +3033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="15"/>
@@ -3039,7 +3046,7 @@
       <c r="J81" s="16"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -3047,34 +3054,34 @@
         <v>20</v>
       </c>
       <c r="C82" s="9">
-        <v>21606</v>
+        <v>21659</v>
       </c>
       <c r="D82" s="13">
-        <v>6.2038430174463342</v>
+        <v>6.2144396273459446</v>
       </c>
       <c r="E82" s="11">
-        <v>6.6046468573544388</v>
+        <v>12.295119811625652</v>
       </c>
       <c r="F82" s="11">
-        <v>28.353235212440985</v>
+        <v>38.667528510088182</v>
       </c>
       <c r="G82" s="11">
-        <v>57.539572341016388</v>
+        <v>67.791680132970129</v>
       </c>
       <c r="H82" s="11">
-        <v>81.639359437193377</v>
+        <v>89.699432106745462</v>
       </c>
       <c r="I82" s="11">
-        <v>94.288623530500786</v>
+        <v>97.631469596934295</v>
       </c>
       <c r="J82" s="11">
-        <v>98.625381838378217</v>
+        <v>99.792234175169682</v>
       </c>
       <c r="K82" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="15">
@@ -3105,7 +3112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
@@ -3113,34 +3120,34 @@
         <v>22</v>
       </c>
       <c r="C84" s="9">
-        <v>9712</v>
+        <v>9732</v>
       </c>
       <c r="D84" s="13">
-        <v>2.2466451841245094</v>
+        <v>2.2501630050265664</v>
       </c>
       <c r="E84" s="11">
-        <v>9.0609555189456348</v>
+        <v>16.389231401561858</v>
       </c>
       <c r="F84" s="11">
-        <v>35.214168039538713</v>
+        <v>46.927661323468968</v>
       </c>
       <c r="G84" s="11">
-        <v>64.950576606260299</v>
+        <v>75.482942868886155</v>
       </c>
       <c r="H84" s="11">
-        <v>86.387973640856671</v>
+        <v>93.033292231812581</v>
       </c>
       <c r="I84" s="11">
-        <v>96.128500823723229</v>
+        <v>98.653925195232233</v>
       </c>
       <c r="J84" s="11">
-        <v>99.279242174629317</v>
+        <v>99.866420057542129</v>
       </c>
       <c r="K84" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="15">
@@ -3171,7 +3178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>21</v>
       </c>
@@ -3179,34 +3186,34 @@
         <v>23</v>
       </c>
       <c r="C86" s="9">
-        <v>31318</v>
+        <v>31391</v>
       </c>
       <c r="D86" s="13">
-        <v>4.012263037805055</v>
+        <v>4.019184947037818</v>
       </c>
       <c r="E86" s="11">
-        <v>7.3663707771888367</v>
+        <v>13.564397438756332</v>
       </c>
       <c r="F86" s="11">
-        <v>30.480873619005045</v>
+        <v>41.228377560447257</v>
       </c>
       <c r="G86" s="11">
-        <v>59.837792962513568</v>
+        <v>70.176165142875348</v>
       </c>
       <c r="H86" s="11">
-        <v>83.111948400280994</v>
+        <v>90.733012646937013</v>
       </c>
       <c r="I86" s="11">
-        <v>94.859186410371038</v>
+        <v>97.948456563983314</v>
       </c>
       <c r="J86" s="11">
-        <v>98.82814994571811</v>
+        <v>99.815233665700362</v>
       </c>
       <c r="K86" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="15">
@@ -3237,7 +3244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="15"/>
@@ -3250,7 +3257,7 @@
       <c r="J88" s="16"/>
       <c r="K88" s="17"/>
     </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>33</v>
       </c>
@@ -3258,34 +3265,34 @@
         <v>20</v>
       </c>
       <c r="C89" s="9">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="D89" s="13">
-        <v>1.2165918200925723</v>
+        <v>1.2159746590651512</v>
       </c>
       <c r="E89" s="11">
-        <v>1.6993155534576352</v>
+        <v>4.0349221330816416</v>
       </c>
       <c r="F89" s="11">
-        <v>8.850601840925183</v>
+        <v>16.776781500707884</v>
       </c>
       <c r="G89" s="11">
-        <v>33.396270946424359</v>
+        <v>47.54601226993865</v>
       </c>
       <c r="H89" s="11">
-        <v>70.993627566674533</v>
+        <v>83.081642284096262</v>
       </c>
       <c r="I89" s="11">
-        <v>93.816379513806936</v>
+        <v>97.28645587541294</v>
       </c>
       <c r="J89" s="11">
-        <v>99.315553457635119</v>
+        <v>99.882019820670138</v>
       </c>
       <c r="K89" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="15">
@@ -3316,7 +3323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>21</v>
       </c>
@@ -3327,31 +3334,31 @@
         <v>10815</v>
       </c>
       <c r="D91" s="13">
-        <v>2.5017985653116317</v>
+        <v>2.5005664713689186</v>
       </c>
       <c r="E91" s="11">
-        <v>2.0249653259361997</v>
+        <v>5.547850208044383</v>
       </c>
       <c r="F91" s="11">
-        <v>12.390198797965789</v>
+        <v>23.809523809523807</v>
       </c>
       <c r="G91" s="11">
-        <v>42.219140083217752</v>
+        <v>57.466481738326401</v>
       </c>
       <c r="H91" s="11">
-        <v>79.056865464632452</v>
+        <v>88.821081830790575</v>
       </c>
       <c r="I91" s="11">
-        <v>96.079519186315295</v>
+        <v>98.594544613962086</v>
       </c>
       <c r="J91" s="11">
-        <v>99.574664817383265</v>
+        <v>99.953767914932968</v>
       </c>
       <c r="K91" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="15">
@@ -3382,7 +3389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>21</v>
       </c>
@@ -3390,34 +3397,34 @@
         <v>23</v>
       </c>
       <c r="C93" s="9">
-        <v>15052</v>
+        <v>15053</v>
       </c>
       <c r="D93" s="13">
-        <v>1.9283665382540929</v>
+        <v>1.9273292028849123</v>
       </c>
       <c r="E93" s="11">
-        <v>1.9332979006112145</v>
+        <v>5.121902610775261</v>
       </c>
       <c r="F93" s="11">
-        <v>11.393834706351315</v>
+        <v>21.829535640736069</v>
       </c>
       <c r="G93" s="11">
-        <v>39.735583311187881</v>
+        <v>54.673487012555633</v>
       </c>
       <c r="H93" s="11">
-        <v>76.787137921870851</v>
+        <v>87.20520826413339</v>
       </c>
       <c r="I93" s="11">
-        <v>95.442466117459475</v>
+        <v>98.22626718926459</v>
       </c>
       <c r="J93" s="11">
-        <v>99.501727345203292</v>
+        <v>99.933568059523012</v>
       </c>
       <c r="K93" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="15">
@@ -3448,7 +3455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="15"/>
@@ -3461,7 +3468,7 @@
       <c r="J95" s="16"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>34</v>
       </c>
@@ -3469,34 +3476,34 @@
         <v>20</v>
       </c>
       <c r="C96" s="9">
-        <v>9369</v>
+        <v>9374</v>
       </c>
       <c r="D96" s="13">
-        <v>2.6901696394730492</v>
+        <v>2.6896051095037112</v>
       </c>
       <c r="E96" s="11">
-        <v>9.4353719713950266</v>
+        <v>14.380200554725839</v>
       </c>
       <c r="F96" s="11">
-        <v>23.716511900949939</v>
+        <v>34.734371666311077</v>
       </c>
       <c r="G96" s="11">
-        <v>51.713096381684274</v>
+        <v>64.689566887134632</v>
       </c>
       <c r="H96" s="11">
-        <v>79.880456825701785</v>
+        <v>89.257520802218906</v>
       </c>
       <c r="I96" s="11">
-        <v>95.20759953036611</v>
+        <v>98.271815660337097</v>
       </c>
       <c r="J96" s="11">
-        <v>99.434304621624506</v>
+        <v>99.946660977170893</v>
       </c>
       <c r="K96" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="15">
@@ -3527,7 +3534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>21</v>
       </c>
@@ -3535,34 +3542,34 @@
         <v>22</v>
       </c>
       <c r="C98" s="9">
-        <v>31998</v>
+        <v>32006</v>
       </c>
       <c r="D98" s="13">
-        <v>7.4019926484365781</v>
+        <v>7.4001969933087013</v>
       </c>
       <c r="E98" s="11">
-        <v>9.1068191761985116</v>
+        <v>15.090920452415171</v>
       </c>
       <c r="F98" s="11">
-        <v>25.892243265204073</v>
+        <v>38.599012685121544</v>
       </c>
       <c r="G98" s="11">
-        <v>56.22226389149322</v>
+        <v>69.074548522152099</v>
       </c>
       <c r="H98" s="11">
-        <v>83.033314582161381</v>
+        <v>91.760919827532334</v>
       </c>
       <c r="I98" s="11">
-        <v>96.671666979186199</v>
+        <v>98.862713241267258</v>
       </c>
       <c r="J98" s="11">
-        <v>99.621851365710356</v>
+        <v>99.946884959070175</v>
       </c>
       <c r="K98" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="15">
@@ -3593,7 +3600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>21</v>
       </c>
@@ -3601,34 +3608,34 @@
         <v>23</v>
       </c>
       <c r="C100" s="9">
-        <v>41367</v>
+        <v>41380</v>
       </c>
       <c r="D100" s="13">
-        <v>5.2996770255087071</v>
+        <v>5.2981387374860596</v>
       </c>
       <c r="E100" s="11">
-        <v>9.1812314163463622</v>
+        <v>14.929917834702755</v>
       </c>
       <c r="F100" s="11">
-        <v>25.399473009887107</v>
+        <v>37.723537941034316</v>
       </c>
       <c r="G100" s="11">
-        <v>55.201005632509002</v>
+        <v>68.081198646689217</v>
       </c>
       <c r="H100" s="11">
-        <v>82.319239973892238</v>
+        <v>91.193813436442724</v>
       </c>
       <c r="I100" s="11">
-        <v>96.340077839824005</v>
+        <v>98.728854519091342</v>
       </c>
       <c r="J100" s="11">
-        <v>99.579374864022043</v>
+        <v>99.946834219429675</v>
       </c>
       <c r="K100" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="15">
@@ -3659,7 +3666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="15"/>
@@ -3672,7 +3679,7 @@
       <c r="J102" s="16"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>35</v>
       </c>
@@ -3683,31 +3690,31 @@
         <v>1927</v>
       </c>
       <c r="D103" s="13">
-        <v>0.55330952025451663</v>
+        <v>0.5528983407311342</v>
       </c>
       <c r="E103" s="11">
-        <v>2.9579657498702647</v>
+        <v>6.1754021795537106</v>
       </c>
       <c r="F103" s="11">
-        <v>12.091333679294241</v>
+        <v>20.238713025428126</v>
       </c>
       <c r="G103" s="11">
-        <v>37.623248572911258</v>
+        <v>51.115723923196676</v>
       </c>
       <c r="H103" s="11">
-        <v>72.963155163466524</v>
+        <v>82.874935132330052</v>
       </c>
       <c r="I103" s="11">
-        <v>93.876491956408927</v>
+        <v>96.782563570316555</v>
       </c>
       <c r="J103" s="11">
-        <v>99.014011416709906</v>
+        <v>99.636741048261541</v>
       </c>
       <c r="K103" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="15">
@@ -3738,7 +3745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>21</v>
       </c>
@@ -3746,34 +3753,34 @@
         <v>22</v>
       </c>
       <c r="C105" s="9">
-        <v>5950</v>
+        <v>5952</v>
       </c>
       <c r="D105" s="13">
-        <v>1.3763940326957198</v>
+        <v>1.3761786072665558</v>
       </c>
       <c r="E105" s="11">
-        <v>3.5126050420168067</v>
+        <v>7.039650537634409</v>
       </c>
       <c r="F105" s="11">
-        <v>14.941176470588236</v>
+        <v>25.453629032258064</v>
       </c>
       <c r="G105" s="11">
-        <v>45.226890756302524</v>
+        <v>58.719758064516128</v>
       </c>
       <c r="H105" s="11">
-        <v>79.0420168067227</v>
+        <v>88.776881720430111</v>
       </c>
       <c r="I105" s="11">
-        <v>95.882352941176478</v>
+        <v>98.252688172043008</v>
       </c>
       <c r="J105" s="11">
-        <v>99.663865546218489</v>
+        <v>99.899193548387103</v>
       </c>
       <c r="K105" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="15">
@@ -3804,7 +3811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>21</v>
       </c>
@@ -3812,34 +3819,34 @@
         <v>23</v>
       </c>
       <c r="C107" s="9">
-        <v>7877</v>
+        <v>7879</v>
       </c>
       <c r="D107" s="13">
-        <v>1.0091511574426979</v>
+        <v>1.0087973685996294</v>
       </c>
       <c r="E107" s="11">
-        <v>3.3769201472641868</v>
+        <v>6.8282777002157635</v>
       </c>
       <c r="F107" s="11">
-        <v>14.244001523422622</v>
+        <v>24.178195202436857</v>
       </c>
       <c r="G107" s="11">
-        <v>43.366763996445343</v>
+        <v>56.860007615179583</v>
       </c>
       <c r="H107" s="11">
-        <v>77.554906690364362</v>
+        <v>87.333417946439909</v>
       </c>
       <c r="I107" s="11">
-        <v>95.391646565951504</v>
+        <v>97.893133646401836</v>
       </c>
       <c r="J107" s="11">
-        <v>99.504887647581569</v>
+        <v>99.835004442188094</v>
       </c>
       <c r="K107" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="15">
@@ -3870,7 +3877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -3883,7 +3890,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
     </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>36</v>
       </c>
@@ -3891,34 +3898,34 @@
         <v>20</v>
       </c>
       <c r="C110" s="9">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="D110" s="13">
-        <v>0.67763905957481019</v>
+        <v>0.67742240916772589</v>
       </c>
       <c r="E110" s="11">
-        <v>15.720338983050846</v>
+        <v>21.685726387124099</v>
       </c>
       <c r="F110" s="11">
-        <v>46.144067796610173</v>
+        <v>54.299025836509948</v>
       </c>
       <c r="G110" s="11">
-        <v>71.398305084745758</v>
+        <v>78.356628547225753</v>
       </c>
       <c r="H110" s="11">
-        <v>88.601694915254242</v>
+        <v>93.265565438373571</v>
       </c>
       <c r="I110" s="11">
-        <v>96.906779661016955</v>
+        <v>98.814061838204154</v>
       </c>
       <c r="J110" s="11">
-        <v>99.533898305084747</v>
+        <v>99.915290131300296</v>
       </c>
       <c r="K110" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="15">
@@ -3949,7 +3956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>21</v>
       </c>
@@ -3957,34 +3964,34 @@
         <v>22</v>
       </c>
       <c r="C112" s="9">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="D112" s="13">
-        <v>1.364827696286512</v>
+        <v>1.3646179670845453</v>
       </c>
       <c r="E112" s="11">
-        <v>15.050847457627118</v>
+        <v>19.925449000338869</v>
       </c>
       <c r="F112" s="11">
-        <v>45.847457627118644</v>
+        <v>54.37139952558455</v>
       </c>
       <c r="G112" s="11">
-        <v>73.152542372881356</v>
+        <v>79.854286682480506</v>
       </c>
       <c r="H112" s="11">
-        <v>90.169491525423723</v>
+        <v>94.374788207387326</v>
       </c>
       <c r="I112" s="11">
-        <v>97.067796610169495</v>
+        <v>98.983395459166374</v>
       </c>
       <c r="J112" s="11">
-        <v>99.508474576271183</v>
+        <v>99.915282954930532</v>
       </c>
       <c r="K112" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="15">
@@ -4015,7 +4022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>21</v>
       </c>
@@ -4023,34 +4030,34 @@
         <v>23</v>
       </c>
       <c r="C114" s="9">
-        <v>8260</v>
+        <v>8263</v>
       </c>
       <c r="D114" s="13">
-        <v>1.0582186822999473</v>
+        <v>1.0579632766516993</v>
       </c>
       <c r="E114" s="11">
-        <v>15.242130750605327</v>
+        <v>20.428415829601839</v>
       </c>
       <c r="F114" s="11">
-        <v>45.932203389830505</v>
+        <v>54.350720077453708</v>
       </c>
       <c r="G114" s="11">
-        <v>72.651331719128336</v>
+        <v>79.426358465448388</v>
       </c>
       <c r="H114" s="11">
-        <v>89.721549636803871</v>
+        <v>94.057848239138337</v>
       </c>
       <c r="I114" s="11">
-        <v>97.021791767554475</v>
+        <v>98.935011497034978</v>
       </c>
       <c r="J114" s="11">
-        <v>99.515738498789347</v>
+        <v>99.915285005445966</v>
       </c>
       <c r="K114" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="15">
@@ -4081,7 +4088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="15"/>
@@ -4094,7 +4101,7 @@
       <c r="J116" s="16"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>37</v>
       </c>
@@ -4129,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="15">
@@ -4160,7 +4167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
@@ -4195,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="15">
@@ -4226,7 +4233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>21</v>
       </c>
@@ -4261,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="15">
@@ -4292,7 +4299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="15"/>
@@ -4305,7 +4312,7 @@
       <c r="J123" s="16"/>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>38</v>
       </c>
@@ -4313,34 +4320,34 @@
         <v>20</v>
       </c>
       <c r="C124" s="9">
-        <v>14908</v>
+        <v>14911</v>
       </c>
       <c r="D124" s="13">
-        <v>4.2806114831107074</v>
+        <v>4.2782912084286151</v>
       </c>
       <c r="E124" s="11">
-        <v>3.8569895358196944</v>
+        <v>7.9605660250821542</v>
       </c>
       <c r="F124" s="11">
-        <v>18.627582506037026</v>
+        <v>28.106766816444235</v>
       </c>
       <c r="G124" s="11">
-        <v>47.276629997316874</v>
+        <v>58.413251961639055</v>
       </c>
       <c r="H124" s="11">
-        <v>77.240407834719619</v>
+        <v>85.8225471128697</v>
       </c>
       <c r="I124" s="11">
-        <v>93.701368392809229</v>
+        <v>97.116222922674538</v>
       </c>
       <c r="J124" s="11">
-        <v>98.792594580091233</v>
+        <v>99.812219167057876</v>
       </c>
       <c r="K124" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="15">
@@ -4371,7 +4378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>21</v>
       </c>
@@ -4379,34 +4386,34 @@
         <v>22</v>
       </c>
       <c r="C126" s="9">
-        <v>15290</v>
+        <v>15292</v>
       </c>
       <c r="D126" s="13">
-        <v>3.5369856739357233</v>
+        <v>3.535706193266158</v>
       </c>
       <c r="E126" s="11">
-        <v>8.1818181818181817</v>
+        <v>15.622547737379023</v>
       </c>
       <c r="F126" s="11">
-        <v>32.269457161543492</v>
+        <v>44.984305519225735</v>
       </c>
       <c r="G126" s="11">
-        <v>63.747547416612157</v>
+        <v>73.522103060423746</v>
       </c>
       <c r="H126" s="11">
-        <v>87.181164159581428</v>
+        <v>92.571279100183105</v>
       </c>
       <c r="I126" s="11">
-        <v>96.854153041203404</v>
+        <v>98.750980905048394</v>
       </c>
       <c r="J126" s="11">
-        <v>99.372138652714199</v>
+        <v>99.934606330107243</v>
       </c>
       <c r="K126" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="15">
@@ -4437,7 +4444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>21</v>
       </c>
@@ -4445,34 +4452,34 @@
         <v>23</v>
       </c>
       <c r="C128" s="9">
-        <v>30198</v>
+        <v>30203</v>
       </c>
       <c r="D128" s="13">
-        <v>3.8687757588491292</v>
+        <v>3.8670779190017277</v>
       </c>
       <c r="E128" s="11">
-        <v>6.0467580634479106</v>
+        <v>11.839883455285898</v>
       </c>
       <c r="F128" s="11">
-        <v>25.534803629379425</v>
+        <v>36.651988213091414</v>
       </c>
       <c r="G128" s="11">
-        <v>55.61626597787933</v>
+        <v>66.062973876767202</v>
       </c>
       <c r="H128" s="11">
-        <v>82.273660507318368</v>
+        <v>89.239479521901799</v>
       </c>
       <c r="I128" s="11">
-        <v>95.29770183455858</v>
+        <v>97.943912856338784</v>
       </c>
       <c r="J128" s="11">
-        <v>99.086032187562097</v>
+        <v>99.874184683640692</v>
       </c>
       <c r="K128" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="15">
@@ -4503,7 +4510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="15"/>
@@ -4516,7 +4523,7 @@
       <c r="J130" s="16"/>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>39</v>
       </c>
@@ -4524,34 +4531,34 @@
         <v>20</v>
       </c>
       <c r="C131" s="9">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D131" s="13">
-        <v>0.31642298459806817</v>
+        <v>0.31704860742496277</v>
       </c>
       <c r="E131" s="11">
-        <v>20.871143375680582</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="F131" s="11">
-        <v>54.355716878402902</v>
+        <v>58.733031674208149</v>
       </c>
       <c r="G131" s="11">
-        <v>76.678765880217782</v>
+        <v>80.361990950226243</v>
       </c>
       <c r="H131" s="11">
-        <v>89.745916515426501</v>
+        <v>92.941176470588232</v>
       </c>
       <c r="I131" s="11">
-        <v>97.277676950998185</v>
+        <v>98.461538461538467</v>
       </c>
       <c r="J131" s="11">
-        <v>99.909255898366609</v>
+        <v>100</v>
       </c>
       <c r="K131" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="15">
@@ -4582,7 +4589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>21</v>
       </c>
@@ -4590,34 +4597,34 @@
         <v>22</v>
       </c>
       <c r="C133" s="9">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D133" s="13">
-        <v>0.40320248722498142</v>
+        <v>0.40323512954853385</v>
       </c>
       <c r="E133" s="11">
-        <v>20.596672403901319</v>
+        <v>23.337155963302752</v>
       </c>
       <c r="F133" s="11">
-        <v>53.413654618473892</v>
+        <v>58.715596330275233</v>
       </c>
       <c r="G133" s="11">
-        <v>78.313253012048193</v>
+        <v>83.772935779816521</v>
       </c>
       <c r="H133" s="11">
-        <v>92.426850258175563</v>
+        <v>95.986238532110093</v>
       </c>
       <c r="I133" s="11">
-        <v>98.221457257601841</v>
+        <v>99.311926605504581</v>
       </c>
       <c r="J133" s="11">
-        <v>99.942627653471021</v>
+        <v>99.942660550458712</v>
       </c>
       <c r="K133" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="15">
@@ -4648,7 +4655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>21</v>
       </c>
@@ -4656,34 +4663,34 @@
         <v>23</v>
       </c>
       <c r="C135" s="9">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="D135" s="13">
-        <v>0.36448331127643463</v>
+        <v>0.36477518760506972</v>
       </c>
       <c r="E135" s="11">
-        <v>20.70298769771529</v>
+        <v>23.411723411723411</v>
       </c>
       <c r="F135" s="11">
-        <v>53.778558875219687</v>
+        <v>58.722358722358727</v>
       </c>
       <c r="G135" s="11">
-        <v>77.680140597539534</v>
+        <v>82.449982449982457</v>
       </c>
       <c r="H135" s="11">
-        <v>91.388400702987695</v>
+        <v>94.805194805194802</v>
       </c>
       <c r="I135" s="11">
-        <v>97.85588752196837</v>
+        <v>98.982098982098989</v>
       </c>
       <c r="J135" s="11">
-        <v>99.929701230228474</v>
+        <v>99.964899964899971</v>
       </c>
       <c r="K135" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="15">
@@ -4714,7 +4721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="15"/>
@@ -4727,7 +4734,7 @@
       <c r="J137" s="16"/>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>40</v>
       </c>
@@ -4735,34 +4742,34 @@
         <v>20</v>
       </c>
       <c r="C138" s="9">
-        <v>19620</v>
+        <v>19634</v>
       </c>
       <c r="D138" s="13">
-        <v>5.6335925207024475</v>
+        <v>5.6334229485807414</v>
       </c>
       <c r="E138" s="11">
-        <v>4.6687054026503567</v>
+        <v>9.5854130589793218</v>
       </c>
       <c r="F138" s="11">
-        <v>20.682976554536186</v>
+        <v>32.020984007334221</v>
       </c>
       <c r="G138" s="11">
-        <v>50.95820591233435</v>
+        <v>62.519099521238665</v>
       </c>
       <c r="H138" s="11">
-        <v>80.025484199796125</v>
+        <v>87.90872975450749</v>
       </c>
       <c r="I138" s="11">
-        <v>94.918450560652403</v>
+        <v>97.830294387287353</v>
       </c>
       <c r="J138" s="11">
-        <v>99.174311926605512</v>
+        <v>99.877763064072525</v>
       </c>
       <c r="K138" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="15">
@@ -4793,7 +4800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>21</v>
       </c>
@@ -4801,34 +4808,34 @@
         <v>22</v>
       </c>
       <c r="C140" s="9">
-        <v>25244</v>
+        <v>25264</v>
       </c>
       <c r="D140" s="13">
-        <v>5.8396119262807984</v>
+        <v>5.8413602711663755</v>
       </c>
       <c r="E140" s="11">
-        <v>6.841229599112661</v>
+        <v>13.50538315389487</v>
       </c>
       <c r="F140" s="11">
-        <v>26.913325938836952</v>
+        <v>40.908011399620015</v>
       </c>
       <c r="G140" s="11">
-        <v>60.39851053715735</v>
+        <v>71.995725142495246</v>
       </c>
       <c r="H140" s="11">
-        <v>85.814450958643647</v>
+        <v>92.384420519316024</v>
       </c>
       <c r="I140" s="11">
-        <v>96.601172555854859</v>
+        <v>98.610671310956306</v>
       </c>
       <c r="J140" s="11">
-        <v>99.461258120741562</v>
+        <v>99.889170360987961</v>
       </c>
       <c r="K140" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="15">
@@ -4859,7 +4866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>21</v>
       </c>
@@ -4867,34 +4874,34 @@
         <v>23</v>
       </c>
       <c r="C142" s="9">
-        <v>44864</v>
+        <v>44898</v>
       </c>
       <c r="D142" s="13">
-        <v>5.7476904313201977</v>
+        <v>5.748570155525595</v>
       </c>
       <c r="E142" s="11">
-        <v>5.891137660485021</v>
+        <v>11.791171098935365</v>
       </c>
       <c r="F142" s="11">
-        <v>24.188659058487875</v>
+        <v>37.021693616642168</v>
       </c>
       <c r="G142" s="11">
-        <v>56.270060627674745</v>
+        <v>67.851574680386648</v>
       </c>
       <c r="H142" s="11">
-        <v>83.28281027104137</v>
+        <v>90.427190520735891</v>
       </c>
       <c r="I142" s="11">
-        <v>95.865281740370904</v>
+        <v>98.269410664172113</v>
       </c>
       <c r="J142" s="11">
-        <v>99.335770328102711</v>
+        <v>99.884181923470976</v>
       </c>
       <c r="K142" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="15">
@@ -4925,7 +4932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="15"/>
@@ -4938,7 +4945,7 @@
       <c r="J144" s="16"/>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>41</v>
       </c>
@@ -4949,31 +4956,31 @@
         <v>852</v>
       </c>
       <c r="D145" s="13">
-        <v>0.2446391859142959</v>
+        <v>0.24445738780639664</v>
       </c>
       <c r="E145" s="11">
-        <v>3.051643192488263</v>
+        <v>5.516431924882629</v>
       </c>
       <c r="F145" s="11">
-        <v>14.788732394366196</v>
+        <v>25.821596244131456</v>
       </c>
       <c r="G145" s="11">
-        <v>37.089201877934272</v>
+        <v>58.098591549295776</v>
       </c>
       <c r="H145" s="11">
-        <v>64.201877934272304</v>
+        <v>85.328638497652591</v>
       </c>
       <c r="I145" s="11">
-        <v>86.267605633802816</v>
+        <v>97.417840375586849</v>
       </c>
       <c r="J145" s="11">
-        <v>96.713615023474176</v>
+        <v>100</v>
       </c>
       <c r="K145" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="15">
@@ -5004,7 +5011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>21</v>
       </c>
@@ -5012,34 +5019,34 @@
         <v>22</v>
       </c>
       <c r="C147" s="9">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D147" s="13">
-        <v>0.11103682952839421</v>
+        <v>0.11121335855094312</v>
       </c>
       <c r="E147" s="11">
-        <v>5.833333333333333</v>
+        <v>9.9792099792099798</v>
       </c>
       <c r="F147" s="11">
-        <v>20.833333333333336</v>
+        <v>33.056133056133056</v>
       </c>
       <c r="G147" s="11">
-        <v>45.208333333333336</v>
+        <v>66.735966735966741</v>
       </c>
       <c r="H147" s="11">
-        <v>72.083333333333329</v>
+        <v>91.476091476091483</v>
       </c>
       <c r="I147" s="11">
-        <v>90.833333333333329</v>
+        <v>97.713097713097724</v>
       </c>
       <c r="J147" s="11">
-        <v>97.708333333333329</v>
+        <v>99.792099792099805</v>
       </c>
       <c r="K147" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="15">
@@ -5070,7 +5077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>21</v>
       </c>
@@ -5078,34 +5085,34 @@
         <v>23</v>
       </c>
       <c r="C149" s="9">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D149" s="13">
-        <v>0.1706473710440109</v>
+        <v>0.17067227977450261</v>
       </c>
       <c r="E149" s="11">
-        <v>4.0540540540540544</v>
+        <v>7.1267816954238565</v>
       </c>
       <c r="F149" s="11">
-        <v>16.966966966966968</v>
+        <v>28.432108027006752</v>
       </c>
       <c r="G149" s="11">
-        <v>40.015015015015017</v>
+        <v>61.215303825956489</v>
       </c>
       <c r="H149" s="11">
-        <v>67.042042042042041</v>
+        <v>87.546886721680423</v>
       </c>
       <c r="I149" s="11">
-        <v>87.912912912912915</v>
+        <v>97.52438109527381</v>
       </c>
       <c r="J149" s="11">
-        <v>97.072072072072075</v>
+        <v>99.924981245311329</v>
       </c>
       <c r="K149" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="15">
@@ -5136,7 +5143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="15"/>
@@ -5149,7 +5156,7 @@
       <c r="J151" s="16"/>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>42</v>
       </c>
@@ -5160,31 +5167,31 @@
         <v>92</v>
       </c>
       <c r="D152" s="13">
-        <v>2.6416437915628196E-2</v>
+        <v>2.6396807134024054E-2</v>
       </c>
       <c r="E152" s="11">
-        <v>5.4347826086956523</v>
+        <v>21.739130434782609</v>
       </c>
       <c r="F152" s="11">
-        <v>44.565217391304344</v>
+        <v>58.695652173913047</v>
       </c>
       <c r="G152" s="11">
-        <v>77.173913043478265</v>
+        <v>86.956521739130437</v>
       </c>
       <c r="H152" s="11">
-        <v>89.130434782608688</v>
+        <v>94.565217391304344</v>
       </c>
       <c r="I152" s="11">
-        <v>93.478260869565219</v>
+        <v>94.565217391304344</v>
       </c>
       <c r="J152" s="11">
-        <v>95.652173913043484</v>
+        <v>98.91304347826086</v>
       </c>
       <c r="K152" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="15">
@@ -5215,7 +5222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>21</v>
       </c>
@@ -5226,31 +5233,31 @@
         <v>223</v>
       </c>
       <c r="D154" s="13">
-        <v>5.1585860385066469E-2</v>
+        <v>5.156045521176781E-2</v>
       </c>
       <c r="E154" s="11">
-        <v>11.659192825112108</v>
+        <v>21.973094170403588</v>
       </c>
       <c r="F154" s="11">
-        <v>57.399103139013455</v>
+        <v>68.161434977578466</v>
       </c>
       <c r="G154" s="11">
-        <v>85.650224215246638</v>
+        <v>91.928251121076229</v>
       </c>
       <c r="H154" s="11">
-        <v>96.860986547085204</v>
+        <v>98.654708520179369</v>
       </c>
       <c r="I154" s="11">
-        <v>98.654708520179369</v>
+        <v>99.551569506726452</v>
       </c>
       <c r="J154" s="11">
-        <v>99.551569506726452</v>
+        <v>100</v>
       </c>
       <c r="K154" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="15">
@@ -5281,7 +5288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>21</v>
       </c>
@@ -5292,31 +5299,31 @@
         <v>315</v>
       </c>
       <c r="D156" s="13">
-        <v>4.0355797206353926E-2</v>
+        <v>4.0331408948963483E-2</v>
       </c>
       <c r="E156" s="11">
-        <v>9.8412698412698418</v>
+        <v>21.904761904761905</v>
       </c>
       <c r="F156" s="11">
-        <v>53.650793650793652</v>
+        <v>65.396825396825392</v>
       </c>
       <c r="G156" s="11">
-        <v>83.174603174603178</v>
+        <v>90.476190476190482</v>
       </c>
       <c r="H156" s="11">
-        <v>94.603174603174594</v>
+        <v>97.460317460317455</v>
       </c>
       <c r="I156" s="11">
-        <v>97.142857142857139</v>
+        <v>98.095238095238088</v>
       </c>
       <c r="J156" s="11">
-        <v>98.412698412698404</v>
+        <v>99.682539682539684</v>
       </c>
       <c r="K156" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="15">
@@ -5347,7 +5354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -5360,7 +5367,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="18"/>
     </row>
-    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>43</v>
       </c>
@@ -5368,34 +5375,34 @@
         <v>20</v>
       </c>
       <c r="C159" s="9">
-        <v>4021</v>
+        <v>4027</v>
       </c>
       <c r="D159" s="13">
-        <v>1.1545706180297932</v>
+        <v>1.1554341557469006</v>
       </c>
       <c r="E159" s="11">
-        <v>3.556329271325541</v>
+        <v>6.4564191705984602</v>
       </c>
       <c r="F159" s="11">
-        <v>14.051231037055459</v>
+        <v>22.448472808542338</v>
       </c>
       <c r="G159" s="11">
-        <v>35.364337229544887</v>
+        <v>48.944623789421406</v>
       </c>
       <c r="H159" s="11">
-        <v>63.417060432728178</v>
+        <v>78.346163397069773</v>
       </c>
       <c r="I159" s="11">
-        <v>84.40686396418802</v>
+        <v>92.947603675192454</v>
       </c>
       <c r="J159" s="11">
-        <v>95.79706540661526</v>
+        <v>99.130866650111756</v>
       </c>
       <c r="K159" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="15">
@@ -5426,7 +5433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>21</v>
       </c>
@@ -5434,34 +5441,34 @@
         <v>22</v>
       </c>
       <c r="C161" s="9">
-        <v>7680</v>
+        <v>7684</v>
       </c>
       <c r="D161" s="13">
-        <v>1.7765892724543073</v>
+        <v>1.7766391831714072</v>
       </c>
       <c r="E161" s="11">
-        <v>4.869791666666667</v>
+        <v>9.6954711087975021</v>
       </c>
       <c r="F161" s="11">
-        <v>18.828125</v>
+        <v>29.68505986465383</v>
       </c>
       <c r="G161" s="11">
-        <v>45.130208333333336</v>
+        <v>59.383133784487242</v>
       </c>
       <c r="H161" s="11">
-        <v>71.861979166666671</v>
+        <v>84.903695991671</v>
       </c>
       <c r="I161" s="11">
-        <v>89.049479166666671</v>
+        <v>95.458094742321705</v>
       </c>
       <c r="J161" s="11">
-        <v>97.122395833333329</v>
+        <v>99.466423737636646</v>
       </c>
       <c r="K161" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="15">
@@ -5492,7 +5499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>21</v>
       </c>
@@ -5500,34 +5507,34 @@
         <v>23</v>
       </c>
       <c r="C163" s="9">
-        <v>11701</v>
+        <v>11711</v>
       </c>
       <c r="D163" s="13">
-        <v>1.499057724163642</v>
+        <v>1.4994321593692423</v>
       </c>
       <c r="E163" s="11">
-        <v>4.4184257755747369</v>
+        <v>8.5816753479634542</v>
       </c>
       <c r="F163" s="11">
-        <v>17.186565250833262</v>
+        <v>27.19665271966527</v>
       </c>
       <c r="G163" s="11">
-        <v>41.774207332706609</v>
+        <v>55.793698232431041</v>
       </c>
       <c r="H163" s="11">
-        <v>68.959917955730276</v>
+        <v>82.648791734266922</v>
       </c>
       <c r="I163" s="11">
-        <v>87.454063755234586</v>
+        <v>94.594825377849887</v>
       </c>
       <c r="J163" s="11">
-        <v>96.666951542603201</v>
+        <v>99.351037486124156</v>
       </c>
       <c r="K163" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="15">
@@ -5558,7 +5565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="15"/>
@@ -5571,7 +5578,7 @@
       <c r="J165" s="16"/>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>44</v>
       </c>
@@ -5579,34 +5586,34 @@
         <v>20</v>
       </c>
       <c r="C166" s="9">
-        <v>57065</v>
+        <v>57117</v>
       </c>
       <c r="D166" s="13">
-        <v>16.385369887557857</v>
+        <v>16.388113402978821</v>
       </c>
       <c r="E166" s="11">
-        <v>17.741172347323229</v>
+        <v>24.115412224031374</v>
       </c>
       <c r="F166" s="11">
-        <v>41.393148164373962</v>
+        <v>49.11147294150603</v>
       </c>
       <c r="G166" s="11">
-        <v>58.617366161394898</v>
+        <v>68.902428348827854</v>
       </c>
       <c r="H166" s="11">
-        <v>75.177429247349508</v>
+        <v>85.564718034910797</v>
       </c>
       <c r="I166" s="11">
-        <v>88.849557522123888</v>
+        <v>94.940210445226469</v>
       </c>
       <c r="J166" s="11">
-        <v>97.317094541312542</v>
+        <v>99.462506784319899</v>
       </c>
       <c r="K166" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="15">
@@ -5637,7 +5644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>21</v>
       </c>
@@ -5645,34 +5652,34 @@
         <v>22</v>
       </c>
       <c r="C168" s="9">
-        <v>37103</v>
+        <v>37147</v>
       </c>
       <c r="D168" s="13">
-        <v>8.5829155958166865</v>
+        <v>8.588862016823045</v>
       </c>
       <c r="E168" s="11">
-        <v>15.955583106487344</v>
+        <v>23.232024120386573</v>
       </c>
       <c r="F168" s="11">
-        <v>42.77282160472199</v>
+        <v>52.21956012598595</v>
       </c>
       <c r="G168" s="11">
-        <v>62.124356521036042</v>
+        <v>73.532182948824939</v>
       </c>
       <c r="H168" s="11">
-        <v>79.120286769263942</v>
+        <v>89.067757827011604</v>
       </c>
       <c r="I168" s="11">
-        <v>91.477778077244437</v>
+        <v>96.605378630845024</v>
       </c>
       <c r="J168" s="11">
-        <v>98.172654502331341</v>
+        <v>99.693111152986774</v>
       </c>
       <c r="K168" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="15">
@@ -5703,7 +5710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>21</v>
       </c>
@@ -5711,34 +5718,34 @@
         <v>23</v>
       </c>
       <c r="C170" s="9">
-        <v>94168</v>
+        <v>94264</v>
       </c>
       <c r="D170" s="13">
-        <v>12.0642054327871</v>
+        <v>12.069206137032044</v>
       </c>
       <c r="E170" s="11">
-        <v>17.037634865347041</v>
+        <v>23.767291861155904</v>
       </c>
       <c r="F170" s="11">
-        <v>41.936751338034149</v>
+        <v>50.336289569719085</v>
       </c>
       <c r="G170" s="11">
-        <v>59.999150454506847</v>
+        <v>70.726894678774514</v>
       </c>
       <c r="H170" s="11">
-        <v>76.730948942315862</v>
+        <v>86.945175252482386</v>
       </c>
       <c r="I170" s="11">
-        <v>89.885098972049946</v>
+        <v>95.596410082321995</v>
       </c>
       <c r="J170" s="11">
-        <v>97.654192507008759</v>
+        <v>99.553381991003988</v>
       </c>
       <c r="K170" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="15">
@@ -5769,7 +5776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="15"/>
@@ -5782,7 +5789,7 @@
       <c r="J172" s="16"/>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>45</v>
       </c>
@@ -5790,34 +5797,34 @@
         <v>20</v>
       </c>
       <c r="C173" s="9">
-        <v>10620</v>
+        <v>10629</v>
       </c>
       <c r="D173" s="13">
-        <v>3.0493757680866462</v>
+        <v>3.0496919894298</v>
       </c>
       <c r="E173" s="11">
-        <v>32.561205273069682</v>
+        <v>41.687835167936775</v>
       </c>
       <c r="F173" s="11">
-        <v>61.845574387947266</v>
+        <v>71.25787938658388</v>
       </c>
       <c r="G173" s="11">
-        <v>80.150659133709979</v>
+        <v>87.468247248094826</v>
       </c>
       <c r="H173" s="11">
-        <v>91.09227871939737</v>
+        <v>95.709850409257697</v>
       </c>
       <c r="I173" s="11">
-        <v>96.741996233521661</v>
+        <v>98.776931037726982</v>
       </c>
       <c r="J173" s="11">
-        <v>98.851224105461384</v>
+        <v>99.840060212625843</v>
       </c>
       <c r="K173" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="15">
@@ -5848,7 +5855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>21</v>
       </c>
@@ -5856,34 +5863,34 @@
         <v>22</v>
       </c>
       <c r="C175" s="9">
-        <v>4346</v>
+        <v>4350</v>
       </c>
       <c r="D175" s="13">
-        <v>1.0053459606883359</v>
+        <v>1.0057756958349326</v>
       </c>
       <c r="E175" s="11">
-        <v>32.765761619880351</v>
+        <v>41.90804597701149</v>
       </c>
       <c r="F175" s="11">
-        <v>63.000460193281185</v>
+        <v>72.781609195402297</v>
       </c>
       <c r="G175" s="11">
-        <v>82.052462034054301</v>
+        <v>89.540229885057471</v>
       </c>
       <c r="H175" s="11">
-        <v>93.166129774505293</v>
+        <v>96.712643678160916</v>
       </c>
       <c r="I175" s="11">
-        <v>97.422917625402675</v>
+        <v>98.965517241379303</v>
       </c>
       <c r="J175" s="11">
-        <v>99.309710078232854</v>
+        <v>99.816091954022994</v>
       </c>
       <c r="K175" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="15">
@@ -5914,7 +5921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>21</v>
       </c>
@@ -5922,34 +5929,34 @@
         <v>23</v>
       </c>
       <c r="C177" s="9">
-        <v>14966</v>
+        <v>14979</v>
       </c>
       <c r="D177" s="13">
-        <v>1.9173487650485488</v>
+        <v>1.9178545226873778</v>
       </c>
       <c r="E177" s="11">
-        <v>32.620606708539356</v>
+        <v>41.751785833500236</v>
       </c>
       <c r="F177" s="11">
-        <v>62.180943471869575</v>
+        <v>71.700380532745839</v>
       </c>
       <c r="G177" s="11">
-        <v>80.702926633703072</v>
+        <v>88.069964617130651</v>
       </c>
       <c r="H177" s="11">
-        <v>91.694507550447682</v>
+        <v>96.001068162093588</v>
       </c>
       <c r="I177" s="11">
-        <v>96.939730054790857</v>
+        <v>98.831697710127514</v>
       </c>
       <c r="J177" s="11">
-        <v>98.984364559668577</v>
+        <v>99.833099672875363</v>
       </c>
       <c r="K177" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="15">
@@ -5980,7 +5987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="15"/>
@@ -5993,7 +6000,7 @@
       <c r="J179" s="16"/>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>46</v>
       </c>
@@ -6001,34 +6008,34 @@
         <v>20</v>
       </c>
       <c r="C180" s="9">
-        <v>9705</v>
+        <v>9706</v>
       </c>
       <c r="D180" s="13">
-        <v>2.7866470649040394</v>
+        <v>2.7848631526395375</v>
       </c>
       <c r="E180" s="11">
-        <v>1.3601236476043277</v>
+        <v>3.4514733154749644</v>
       </c>
       <c r="F180" s="11">
-        <v>9.5105615662029876</v>
+        <v>17.226457861116835</v>
       </c>
       <c r="G180" s="11">
-        <v>41.061308603812471</v>
+        <v>50.391510405934469</v>
       </c>
       <c r="H180" s="11">
-        <v>78.279237506439983</v>
+        <v>85.781990521327018</v>
       </c>
       <c r="I180" s="11">
-        <v>95.218959299330237</v>
+        <v>97.908510199876361</v>
       </c>
       <c r="J180" s="11">
-        <v>99.196290571870165</v>
+        <v>99.835153513290749</v>
       </c>
       <c r="K180" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="15">
@@ -6059,7 +6066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>21</v>
       </c>
@@ -6070,31 +6077,31 @@
         <v>11879</v>
       </c>
       <c r="D182" s="13">
-        <v>2.7479302040995721</v>
+        <v>2.7465768944421067</v>
       </c>
       <c r="E182" s="11">
-        <v>2.7864298341611247</v>
+        <v>6.5914639279400626</v>
       </c>
       <c r="F182" s="11">
-        <v>17.922384039060528</v>
+        <v>29.143867328899738</v>
       </c>
       <c r="G182" s="11">
-        <v>56.705109857732126</v>
+        <v>66.024076100681867</v>
       </c>
       <c r="H182" s="11">
-        <v>87.557875242023741</v>
+        <v>92.768751578415689</v>
       </c>
       <c r="I182" s="11">
-        <v>97.668153885007158</v>
+        <v>99.040323259533636</v>
       </c>
       <c r="J182" s="11">
-        <v>99.663271319134608</v>
+        <v>99.949490697870189</v>
       </c>
       <c r="K182" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="15">
@@ -6125,7 +6132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>21</v>
       </c>
@@ -6133,34 +6140,34 @@
         <v>23</v>
       </c>
       <c r="C184" s="9">
-        <v>21584</v>
+        <v>21585</v>
       </c>
       <c r="D184" s="13">
-        <v>2.7652048473077557</v>
+        <v>2.7636617846456408</v>
       </c>
       <c r="E184" s="11">
-        <v>2.1451074870274276</v>
+        <v>5.1795228167709064</v>
       </c>
       <c r="F184" s="11">
-        <v>14.140103780578206</v>
+        <v>23.785035904563355</v>
       </c>
       <c r="G184" s="11">
-        <v>49.671052631578952</v>
+        <v>58.994672226082926</v>
       </c>
       <c r="H184" s="11">
-        <v>83.385841363973313</v>
+        <v>89.627055825804959</v>
       </c>
       <c r="I184" s="11">
-        <v>96.566901408450704</v>
+        <v>98.531387537641876</v>
       </c>
       <c r="J184" s="11">
-        <v>99.453298739807266</v>
+        <v>99.898077368542971</v>
       </c>
       <c r="K184" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="15">
@@ -6191,7 +6198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="15"/>
@@ -6204,7 +6211,7 @@
       <c r="J186" s="16"/>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
@@ -6212,34 +6219,34 @@
         <v>20</v>
       </c>
       <c r="C187" s="9">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="D187" s="13">
-        <v>0.82895930720020217</v>
+        <v>0.82863020655501574</v>
       </c>
       <c r="E187" s="11">
-        <v>11.257360581918947</v>
+        <v>14.058171745152354</v>
       </c>
       <c r="F187" s="11">
-        <v>33.772081745756843</v>
+        <v>39.993074792243767</v>
       </c>
       <c r="G187" s="11">
-        <v>61.066851402840314</v>
+        <v>69.667590027700825</v>
       </c>
       <c r="H187" s="11">
-        <v>83.754762729476965</v>
+        <v>90.131578947368425</v>
       </c>
       <c r="I187" s="11">
-        <v>94.942847246276401</v>
+        <v>97.887811634349035</v>
       </c>
       <c r="J187" s="11">
-        <v>98.89158295808798</v>
+        <v>99.86149584487535</v>
       </c>
       <c r="K187" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="15">
@@ -6270,7 +6277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>21</v>
       </c>
@@ -6281,31 +6288,31 @@
         <v>2811</v>
       </c>
       <c r="D189" s="13">
-        <v>0.65025943292565846</v>
+        <v>0.64993919103264264</v>
       </c>
       <c r="E189" s="11">
-        <v>10.423336890786198</v>
+        <v>12.48665955176094</v>
       </c>
       <c r="F189" s="11">
-        <v>35.325506937033083</v>
+        <v>42.298114549982216</v>
       </c>
       <c r="G189" s="11">
-        <v>66.310921380291717</v>
+        <v>73.070081821415869</v>
       </c>
       <c r="H189" s="11">
-        <v>86.588402703664187</v>
+        <v>92.671647100675912</v>
       </c>
       <c r="I189" s="11">
-        <v>96.051227321238002</v>
+        <v>98.541444325862685</v>
       </c>
       <c r="J189" s="11">
-        <v>99.573105656350052</v>
+        <v>99.964425471362503</v>
       </c>
       <c r="K189" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="15">
@@ -6336,7 +6343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
@@ -6344,34 +6351,34 @@
         <v>23</v>
       </c>
       <c r="C191" s="9">
-        <v>5698</v>
+        <v>5699</v>
       </c>
       <c r="D191" s="13">
-        <v>0.72999153168826869</v>
+        <v>0.72967841142902501</v>
       </c>
       <c r="E191" s="11">
-        <v>10.845910845910845</v>
+        <v>13.283032110896647</v>
       </c>
       <c r="F191" s="11">
-        <v>34.538434538434537</v>
+        <v>41.130022811019479</v>
       </c>
       <c r="G191" s="11">
-        <v>63.653913653913655</v>
+        <v>71.345850149148973</v>
       </c>
       <c r="H191" s="11">
-        <v>85.152685152685152</v>
+        <v>91.384453412879452</v>
       </c>
       <c r="I191" s="11">
-        <v>95.489645489645497</v>
+        <v>98.210212317950521</v>
       </c>
       <c r="J191" s="11">
-        <v>99.227799227799224</v>
+        <v>99.912265309703457</v>
       </c>
       <c r="K191" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="15">
@@ -6402,7 +6409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="15"/>
@@ -6415,7 +6422,7 @@
       <c r="J193" s="16"/>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>48</v>
       </c>
@@ -6426,31 +6433,31 @@
         <v>138</v>
       </c>
       <c r="D194" s="13">
-        <v>3.9624656873442292E-2</v>
+        <v>3.9595210701036075E-2</v>
       </c>
       <c r="E194" s="11">
-        <v>13.768115942028986</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="F194" s="11">
-        <v>34.782608695652172</v>
+        <v>46.376811594202898</v>
       </c>
       <c r="G194" s="11">
-        <v>58.695652173913047</v>
+        <v>78.260869565217391</v>
       </c>
       <c r="H194" s="11">
-        <v>86.956521739130437</v>
+        <v>94.927536231884062</v>
       </c>
       <c r="I194" s="11">
-        <v>97.101449275362313</v>
+        <v>99.275362318840578</v>
       </c>
       <c r="J194" s="11">
-        <v>99.275362318840578</v>
+        <v>100</v>
       </c>
       <c r="K194" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="15">
@@ -6481,7 +6488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>21</v>
       </c>
@@ -6489,25 +6496,25 @@
         <v>22</v>
       </c>
       <c r="C196" s="9">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D196" s="13">
-        <v>0.27527880653914394</v>
+        <v>0.2753744491354953</v>
       </c>
       <c r="E196" s="11">
-        <v>10.756302521008404</v>
+        <v>13.182199832073888</v>
       </c>
       <c r="F196" s="11">
-        <v>34.117647058823529</v>
+        <v>42.905121746431568</v>
       </c>
       <c r="G196" s="11">
-        <v>68.571428571428569</v>
+        <v>78.001679261125105</v>
       </c>
       <c r="H196" s="11">
-        <v>91.092436974789919</v>
+        <v>96.053736356003355</v>
       </c>
       <c r="I196" s="11">
-        <v>98.655462184873954</v>
+        <v>99.8320738874895</v>
       </c>
       <c r="J196" s="11">
         <v>100</v>
@@ -6516,7 +6523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="15">
@@ -6547,7 +6554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>21</v>
       </c>
@@ -6555,34 +6562,34 @@
         <v>23</v>
       </c>
       <c r="C198" s="9">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D198" s="13">
-        <v>0.17013491647631115</v>
+        <v>0.17016013489896023</v>
       </c>
       <c r="E198" s="11">
-        <v>11.069277108433734</v>
+        <v>13.61926260346125</v>
       </c>
       <c r="F198" s="11">
-        <v>34.186746987951807</v>
+        <v>43.26561324303988</v>
       </c>
       <c r="G198" s="11">
-        <v>67.545180722891558</v>
+        <v>78.028592927012795</v>
       </c>
       <c r="H198" s="11">
-        <v>90.662650602409627</v>
+        <v>95.936794582392778</v>
       </c>
       <c r="I198" s="11">
-        <v>98.493975903614455</v>
+        <v>99.77426636568849</v>
       </c>
       <c r="J198" s="11">
-        <v>99.924698795180717</v>
+        <v>100</v>
       </c>
       <c r="K198" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="15">
@@ -6613,7 +6620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="15"/>
@@ -6626,7 +6633,7 @@
       <c r="J200" s="16"/>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>49</v>
       </c>
@@ -6634,34 +6641,34 @@
         <v>20</v>
       </c>
       <c r="C201" s="9">
-        <v>6500</v>
+        <v>6501</v>
       </c>
       <c r="D201" s="13">
-        <v>1.8663787657780788</v>
+        <v>1.8652787301988081</v>
       </c>
       <c r="E201" s="11">
-        <v>3.5384615384615383</v>
+        <v>6.4451622827257342</v>
       </c>
       <c r="F201" s="11">
-        <v>14.861538461538462</v>
+        <v>23.950161513613292</v>
       </c>
       <c r="G201" s="11">
-        <v>40.523076923076921</v>
+        <v>53.576372865712962</v>
       </c>
       <c r="H201" s="11">
-        <v>69.861538461538458</v>
+        <v>82.418089524688511</v>
       </c>
       <c r="I201" s="11">
-        <v>89.907692307692315</v>
+        <v>95.723734810029228</v>
       </c>
       <c r="J201" s="11">
-        <v>97.707692307692312</v>
+        <v>99.830795262267344</v>
       </c>
       <c r="K201" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="15">
@@ -6692,7 +6699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>21</v>
       </c>
@@ -6700,34 +6707,34 @@
         <v>22</v>
       </c>
       <c r="C203" s="9">
-        <v>4951</v>
+        <v>4953</v>
       </c>
       <c r="D203" s="13">
-        <v>1.1452986312397493</v>
+        <v>1.1451970164299818</v>
       </c>
       <c r="E203" s="11">
-        <v>9.6344172894364775</v>
+        <v>15.727841712093682</v>
       </c>
       <c r="F203" s="11">
-        <v>29.024439507170268</v>
+        <v>42.640823743185948</v>
       </c>
       <c r="G203" s="11">
-        <v>58.028681074530397</v>
+        <v>69.775893397940649</v>
       </c>
       <c r="H203" s="11">
-        <v>81.619874772773187</v>
+        <v>90.409852614577019</v>
       </c>
       <c r="I203" s="11">
-        <v>94.28398303373055</v>
+        <v>98.122350090854027</v>
       </c>
       <c r="J203" s="11">
-        <v>98.88911331044234</v>
+        <v>99.919240864122756</v>
       </c>
       <c r="K203" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="15">
@@ -6758,7 +6765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>21</v>
       </c>
@@ -6766,34 +6773,34 @@
         <v>23</v>
       </c>
       <c r="C205" s="9">
-        <v>11451</v>
+        <v>11454</v>
       </c>
       <c r="D205" s="13">
-        <v>1.4670293136824089</v>
+        <v>1.4665268511156435</v>
       </c>
       <c r="E205" s="11">
-        <v>6.1741332634704387</v>
+        <v>10.459228217216692</v>
       </c>
       <c r="F205" s="11">
-        <v>20.985066806392457</v>
+        <v>32.032477737035094</v>
       </c>
       <c r="G205" s="11">
-        <v>48.091869705702564</v>
+        <v>60.581456259821898</v>
       </c>
       <c r="H205" s="11">
-        <v>74.94541961400752</v>
+        <v>85.873930504627211</v>
       </c>
       <c r="I205" s="11">
-        <v>91.799842808488336</v>
+        <v>96.760956870962104</v>
       </c>
       <c r="J205" s="11">
-        <v>98.218496201205127</v>
+        <v>99.869041382923001</v>
       </c>
       <c r="K205" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="15">
@@ -6824,7 +6831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -6837,7 +6844,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="18"/>
     </row>
-    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>50</v>
       </c>
@@ -6845,34 +6852,34 @@
         <v>20</v>
       </c>
       <c r="C208" s="9">
-        <v>29162</v>
+        <v>29183</v>
       </c>
       <c r="D208" s="13">
-        <v>8.3734365488646674</v>
+        <v>8.3732393760024344</v>
       </c>
       <c r="E208" s="11">
-        <v>10.095329538440437</v>
+        <v>16.62954459788233</v>
       </c>
       <c r="F208" s="11">
-        <v>30.049379329264109</v>
+        <v>40.53387245999383</v>
       </c>
       <c r="G208" s="11">
-        <v>50.874425622385303</v>
+        <v>64.15036151183908</v>
       </c>
       <c r="H208" s="11">
-        <v>71.075372059529528</v>
+        <v>83.373882054620836</v>
       </c>
       <c r="I208" s="11">
-        <v>87.240244153350261</v>
+        <v>94.750368365144084</v>
       </c>
       <c r="J208" s="11">
-        <v>96.529730471161102</v>
+        <v>99.564815132097451</v>
       </c>
       <c r="K208" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="15">
@@ -6903,7 +6910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>21</v>
       </c>
@@ -6911,34 +6918,34 @@
         <v>22</v>
       </c>
       <c r="C210" s="9">
-        <v>8731</v>
+        <v>8738</v>
       </c>
       <c r="D210" s="13">
-        <v>2.0197136637758537</v>
+        <v>2.0203374782081935</v>
       </c>
       <c r="E210" s="11">
-        <v>11.854312220822358</v>
+        <v>20.004577706569009</v>
       </c>
       <c r="F210" s="11">
-        <v>34.280151185431222</v>
+        <v>46.372167544060424</v>
       </c>
       <c r="G210" s="11">
-        <v>56.373840339021875</v>
+        <v>70.542458228427563</v>
       </c>
       <c r="H210" s="11">
-        <v>76.073760164929567</v>
+        <v>87.983520256351568</v>
       </c>
       <c r="I210" s="11">
-        <v>90.34474859695338</v>
+        <v>96.601052872510877</v>
       </c>
       <c r="J210" s="11">
-        <v>97.606230672317025</v>
+        <v>99.668116273746847</v>
       </c>
       <c r="K210" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="15">
@@ -6969,7 +6976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>21</v>
       </c>
@@ -6977,34 +6984,34 @@
         <v>23</v>
       </c>
       <c r="C212" s="9">
-        <v>37893</v>
+        <v>37921</v>
       </c>
       <c r="D212" s="13">
-        <v>4.8546102334614902</v>
+        <v>4.8552614563607754</v>
       </c>
       <c r="E212" s="11">
-        <v>10.500620167313224</v>
+        <v>17.407241370217029</v>
       </c>
       <c r="F212" s="11">
-        <v>31.024199720264956</v>
+        <v>41.879169853115691</v>
       </c>
       <c r="G212" s="11">
-        <v>52.141556488005705</v>
+        <v>65.623269428548824</v>
       </c>
       <c r="H212" s="11">
-        <v>72.227060406935323</v>
+        <v>84.436064449777177</v>
       </c>
       <c r="I212" s="11">
-        <v>87.955559074235339</v>
+        <v>95.176814957411466</v>
       </c>
       <c r="J212" s="11">
-        <v>96.77776898107831</v>
+        <v>99.58861844360645</v>
       </c>
       <c r="K212" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="15">
@@ -7035,7 +7042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="15"/>
@@ -7048,7 +7055,7 @@
       <c r="J214" s="16"/>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>51</v>
       </c>
@@ -7059,31 +7066,31 @@
         <v>9227</v>
       </c>
       <c r="D215" s="13">
-        <v>2.649396441820667</v>
+        <v>2.6474276024526078</v>
       </c>
       <c r="E215" s="11">
-        <v>7.1745962934865073</v>
+        <v>12.474260322965211</v>
       </c>
       <c r="F215" s="11">
-        <v>26.47664462989054</v>
+        <v>37.585347350167986</v>
       </c>
       <c r="G215" s="11">
-        <v>55.987861710198331</v>
+        <v>67.042375636718333</v>
       </c>
       <c r="H215" s="11">
-        <v>81.467432534951769</v>
+        <v>89.357320906036634</v>
       </c>
       <c r="I215" s="11">
-        <v>93.952530616668469</v>
+        <v>97.572342039666196</v>
       </c>
       <c r="J215" s="11">
-        <v>98.591091362306273</v>
+        <v>99.718218272461257</v>
       </c>
       <c r="K215" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="15">
@@ -7114,7 +7121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>21</v>
       </c>
@@ -7122,34 +7129,34 @@
         <v>22</v>
       </c>
       <c r="C217" s="9">
-        <v>8431</v>
+        <v>8432</v>
       </c>
       <c r="D217" s="13">
-        <v>1.9503156453206074</v>
+        <v>1.9495863602942876</v>
       </c>
       <c r="E217" s="11">
-        <v>8.7771320128098687</v>
+        <v>15.275142314990511</v>
       </c>
       <c r="F217" s="11">
-        <v>29.92527576799905</v>
+        <v>42.220113851992409</v>
       </c>
       <c r="G217" s="11">
-        <v>59.720080654726601</v>
+        <v>69.995256166982927</v>
       </c>
       <c r="H217" s="11">
-        <v>82.386431028347758</v>
+        <v>90.192125237191661</v>
       </c>
       <c r="I217" s="11">
-        <v>94.330447159293087</v>
+        <v>97.485768500948765</v>
       </c>
       <c r="J217" s="11">
-        <v>98.505515359981018</v>
+        <v>99.691650853889939</v>
       </c>
       <c r="K217" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="15">
@@ -7180,7 +7187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>21</v>
       </c>
@@ -7188,34 +7195,34 @@
         <v>23</v>
       </c>
       <c r="C219" s="9">
-        <v>17658</v>
+        <v>17659</v>
       </c>
       <c r="D219" s="13">
-        <v>2.2622306891104684</v>
+        <v>2.2609915893007813</v>
       </c>
       <c r="E219" s="11">
-        <v>7.9397440253709375</v>
+        <v>13.811654114049492</v>
       </c>
       <c r="F219" s="11">
-        <v>28.12323026390305</v>
+        <v>39.79840308058214</v>
       </c>
       <c r="G219" s="11">
-        <v>57.769849360063432</v>
+        <v>68.452347245030865</v>
       </c>
       <c r="H219" s="11">
-        <v>81.906218144750255</v>
+        <v>89.755931819468827</v>
       </c>
       <c r="I219" s="11">
-        <v>94.13297089138068</v>
+        <v>97.531004020612727</v>
       </c>
       <c r="J219" s="11">
-        <v>98.550232189375919</v>
+        <v>99.705532589614364</v>
       </c>
       <c r="K219" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="15">
@@ -7246,7 +7253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="15"/>
@@ -7259,7 +7266,7 @@
       <c r="J221" s="16"/>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>52</v>
       </c>
@@ -7267,34 +7274,34 @@
         <v>20</v>
       </c>
       <c r="C222" s="9">
-        <v>16831</v>
+        <v>16832</v>
       </c>
       <c r="D222" s="13">
-        <v>4.8327724625862842</v>
+        <v>4.8294680182597043</v>
       </c>
       <c r="E222" s="11">
-        <v>2.1745588497415484</v>
+        <v>4.8597908745247151</v>
       </c>
       <c r="F222" s="11">
-        <v>10.243003980749807</v>
+        <v>19.130228136882131</v>
       </c>
       <c r="G222" s="11">
-        <v>31.709345849919789</v>
+        <v>44.456986692015207</v>
       </c>
       <c r="H222" s="11">
-        <v>62.087814152456779</v>
+        <v>75.439638783269956</v>
       </c>
       <c r="I222" s="11">
-        <v>85.37817123165587</v>
+        <v>93.328184410646386</v>
       </c>
       <c r="J222" s="11">
-        <v>96.215316974630156</v>
+        <v>99.524714828897345</v>
       </c>
       <c r="K222" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="15">
@@ -7325,7 +7332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>21</v>
       </c>
@@ -7333,34 +7340,34 @@
         <v>22</v>
       </c>
       <c r="C224" s="9">
-        <v>48424</v>
+        <v>48431</v>
       </c>
       <c r="D224" s="13">
-        <v>11.201765485589501</v>
+        <v>11.197867293099224</v>
       </c>
       <c r="E224" s="11">
-        <v>5.0925161077151824</v>
+        <v>10.499473477731206</v>
       </c>
       <c r="F224" s="11">
-        <v>19.539897571452173</v>
+        <v>32.640251078854455</v>
       </c>
       <c r="G224" s="11">
-        <v>48.349991739633239</v>
+        <v>62.193636307323821</v>
       </c>
       <c r="H224" s="11">
-        <v>76.616966793325631</v>
+        <v>86.680018996097544</v>
       </c>
       <c r="I224" s="11">
-        <v>92.416983314059138</v>
+        <v>96.859449526129964</v>
       </c>
       <c r="J224" s="11">
-        <v>98.071204361473647</v>
+        <v>99.704734570832727</v>
       </c>
       <c r="K224" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="15">
@@ -7391,7 +7398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>21</v>
       </c>
@@ -7399,34 +7406,34 @@
         <v>23</v>
       </c>
       <c r="C226" s="9">
-        <v>65255</v>
+        <v>65263</v>
       </c>
       <c r="D226" s="13">
-        <v>8.3600557038115078</v>
+        <v>8.3560277531308049</v>
       </c>
       <c r="E226" s="11">
-        <v>4.3398973258754117</v>
+        <v>9.0449412377610585</v>
       </c>
       <c r="F226" s="11">
-        <v>17.141981457359591</v>
+        <v>29.155876990024975</v>
       </c>
       <c r="G226" s="11">
-        <v>44.057926595663169</v>
+        <v>57.619171659286273</v>
       </c>
       <c r="H226" s="11">
-        <v>72.869511914795808</v>
+        <v>83.781009147602788</v>
       </c>
       <c r="I226" s="11">
-        <v>90.601486476132095</v>
+        <v>95.948699875886803</v>
       </c>
       <c r="J226" s="11">
-        <v>97.592521645850894</v>
+        <v>99.658305624932964</v>
       </c>
       <c r="K226" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="15">
@@ -7457,7 +7464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="15"/>
@@ -7470,7 +7477,7 @@
       <c r="J228" s="16"/>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>53</v>
       </c>
@@ -7478,34 +7485,34 @@
         <v>20</v>
       </c>
       <c r="C229" s="9">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="D229" s="13">
-        <v>1.3383371426602502</v>
+        <v>1.3376295093350012</v>
       </c>
       <c r="E229" s="11">
-        <v>5.5352928556103835</v>
+        <v>10.918060918060918</v>
       </c>
       <c r="F229" s="11">
-        <v>23.600085818493884</v>
+        <v>34.405834405834405</v>
       </c>
       <c r="G229" s="11">
-        <v>52.070371164986049</v>
+        <v>62.719862719862718</v>
       </c>
       <c r="H229" s="11">
-        <v>77.901737824501183</v>
+        <v>87.323037323037326</v>
       </c>
       <c r="I229" s="11">
-        <v>92.469427161553313</v>
+        <v>96.996996996996998</v>
       </c>
       <c r="J229" s="11">
-        <v>98.219266251877286</v>
+        <v>99.721149721149729</v>
       </c>
       <c r="K229" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="15">
@@ -7536,7 +7543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
@@ -7544,34 +7551,34 @@
         <v>22</v>
       </c>
       <c r="C231" s="9">
-        <v>12878</v>
+        <v>12877</v>
       </c>
       <c r="D231" s="13">
-        <v>2.9790256055555426</v>
+        <v>2.9773272724750406</v>
       </c>
       <c r="E231" s="11">
-        <v>5.9325982295387485</v>
+        <v>11.376873495379359</v>
       </c>
       <c r="F231" s="11">
-        <v>25.586271160118031</v>
+        <v>37.120447309155857</v>
       </c>
       <c r="G231" s="11">
-        <v>56.080136667184341</v>
+        <v>67.764230799099167</v>
       </c>
       <c r="H231" s="11">
-        <v>81.681938189159808</v>
+        <v>90.417022598431302</v>
       </c>
       <c r="I231" s="11">
-        <v>94.393539369467305</v>
+        <v>97.887706763997826</v>
       </c>
       <c r="J231" s="11">
-        <v>98.819692498835224</v>
+        <v>99.852450104838084</v>
       </c>
       <c r="K231" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="15">
@@ -7602,7 +7609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
@@ -7613,31 +7620,31 @@
         <v>17539</v>
       </c>
       <c r="D233" s="13">
-        <v>2.2469851657214015</v>
+        <v>2.2456272430345097</v>
       </c>
       <c r="E233" s="11">
-        <v>5.8270140829009636</v>
+        <v>11.254917612178573</v>
       </c>
       <c r="F233" s="11">
-        <v>25.058441188209134</v>
+        <v>36.39888249044985</v>
       </c>
       <c r="G233" s="11">
-        <v>55.014539027310562</v>
+        <v>66.423399281601007</v>
       </c>
       <c r="H233" s="11">
-        <v>80.677347625292199</v>
+        <v>89.594617709105421</v>
       </c>
       <c r="I233" s="11">
-        <v>93.882205370887732</v>
+        <v>97.650949312959696</v>
       </c>
       <c r="J233" s="11">
-        <v>98.660128855693031</v>
+        <v>99.817549461200755</v>
       </c>
       <c r="K233" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="15">
@@ -7668,7 +7675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="15"/>
@@ -7681,7 +7688,7 @@
       <c r="J235" s="16"/>
       <c r="K235" s="17"/>
     </row>
-    <row r="236" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>54</v>
       </c>
@@ -7689,34 +7696,34 @@
         <v>20</v>
       </c>
       <c r="C236" s="9">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D236" s="13">
-        <v>2.5144429002951751</v>
+        <v>2.5128612704324196</v>
       </c>
       <c r="E236" s="11">
-        <v>2.6150508164896653</v>
+        <v>5.0011418131993608</v>
       </c>
       <c r="F236" s="11">
-        <v>11.956149366221307</v>
+        <v>19.148207353277002</v>
       </c>
       <c r="G236" s="11">
-        <v>38.757565376270414</v>
+        <v>48.230189540991091</v>
       </c>
       <c r="H236" s="11">
-        <v>69.841269841269835</v>
+        <v>80.532084950902032</v>
       </c>
       <c r="I236" s="11">
-        <v>89.905218682197102</v>
+        <v>95.272893354647181</v>
       </c>
       <c r="J236" s="11">
-        <v>97.476304670549268</v>
+        <v>99.57752911623659</v>
       </c>
       <c r="K236" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="15">
@@ -7747,7 +7754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>21</v>
       </c>
@@ -7755,34 +7762,34 @@
         <v>22</v>
       </c>
       <c r="C238" s="9">
-        <v>30230</v>
+        <v>30236</v>
       </c>
       <c r="D238" s="13">
-        <v>6.9930069930069934</v>
+        <v>6.9909503308655223</v>
       </c>
       <c r="E238" s="11">
-        <v>5.2464439298709893</v>
+        <v>9.501918243153856</v>
       </c>
       <c r="F238" s="11">
-        <v>20.423420443268274</v>
+        <v>30.447149093795478</v>
       </c>
       <c r="G238" s="11">
-        <v>52.252729077075756</v>
+        <v>62.418970763328488</v>
       </c>
       <c r="H238" s="11">
-        <v>80.241481971551437</v>
+        <v>88.530228866252145</v>
       </c>
       <c r="I238" s="11">
-        <v>94.171352960635133</v>
+        <v>97.569122899854477</v>
       </c>
       <c r="J238" s="11">
-        <v>98.696658948064837</v>
+        <v>99.775102526789254</v>
       </c>
       <c r="K238" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="15">
@@ -7813,7 +7820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>21</v>
       </c>
@@ -7821,34 +7828,34 @@
         <v>23</v>
       </c>
       <c r="C240" s="9">
-        <v>38987</v>
+        <v>38994</v>
       </c>
       <c r="D240" s="13">
-        <v>4.9947665577273659</v>
+        <v>4.9926443192250227</v>
       </c>
       <c r="E240" s="11">
-        <v>4.6553979531638747</v>
+        <v>8.4910499051136075</v>
       </c>
       <c r="F240" s="11">
-        <v>18.521558468207353</v>
+        <v>27.909421962353182</v>
       </c>
       <c r="G240" s="11">
-        <v>49.221535383589405</v>
+        <v>59.232189567625795</v>
       </c>
       <c r="H240" s="11">
-        <v>77.90545566470874</v>
+        <v>86.73385649074217</v>
       </c>
       <c r="I240" s="11">
-        <v>93.213122322825555</v>
+        <v>97.053392829666109</v>
       </c>
       <c r="J240" s="11">
-        <v>98.422551106779181</v>
+        <v>99.730727804277592</v>
       </c>
       <c r="K240" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="15">
@@ -7879,7 +7886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="15"/>
@@ -7892,7 +7899,7 @@
       <c r="J242" s="16"/>
       <c r="K242" s="17"/>
     </row>
-    <row r="243" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>55</v>
       </c>
@@ -7900,34 +7907,34 @@
         <v>20</v>
       </c>
       <c r="C243" s="9">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="D243" s="13">
-        <v>0.76751237552689311</v>
+        <v>0.7672289377867425</v>
       </c>
       <c r="E243" s="11">
-        <v>15.488215488215488</v>
+        <v>21.690351533283469</v>
       </c>
       <c r="F243" s="11">
-        <v>42.835765057987281</v>
+        <v>53.814510097232613</v>
       </c>
       <c r="G243" s="11">
-        <v>71.230826786382337</v>
+        <v>80.516080777860893</v>
       </c>
       <c r="H243" s="11">
-        <v>89.562289562289564</v>
+        <v>94.764397905759154</v>
       </c>
       <c r="I243" s="11">
-        <v>96.820052375607929</v>
+        <v>98.990276738967836</v>
       </c>
       <c r="J243" s="11">
-        <v>99.551066217732881</v>
+        <v>99.925205684367995</v>
       </c>
       <c r="K243" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="15">
@@ -7958,7 +7965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>21</v>
       </c>
@@ -7966,34 +7973,34 @@
         <v>22</v>
       </c>
       <c r="C245" s="9">
-        <v>6032</v>
+        <v>6033</v>
       </c>
       <c r="D245" s="13">
-        <v>1.3953628244068204</v>
+        <v>1.3949068443614134</v>
       </c>
       <c r="E245" s="11">
-        <v>15.799071618037136</v>
+        <v>21.763633349908833</v>
       </c>
       <c r="F245" s="11">
-        <v>44.2473474801061</v>
+        <v>54.516824133930051</v>
       </c>
       <c r="G245" s="11">
-        <v>71.700928381962868</v>
+        <v>81.103928393833911</v>
       </c>
       <c r="H245" s="11">
-        <v>89.505968169761275</v>
+        <v>95.077076081551468</v>
       </c>
       <c r="I245" s="11">
-        <v>96.883289124668437</v>
+        <v>99.088347422509528</v>
       </c>
       <c r="J245" s="11">
-        <v>99.635278514588848</v>
+        <v>99.983424498591077</v>
       </c>
       <c r="K245" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="15">
@@ -8024,7 +8031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>21</v>
       </c>
@@ -8032,34 +8039,34 @@
         <v>23</v>
       </c>
       <c r="C247" s="9">
-        <v>8705</v>
+        <v>8707</v>
       </c>
       <c r="D247" s="13">
-        <v>1.1152292529565426</v>
+        <v>1.1148113578369048</v>
       </c>
       <c r="E247" s="11">
-        <v>15.703618609994255</v>
+        <v>21.741127828184219</v>
       </c>
       <c r="F247" s="11">
-        <v>43.813900057438254</v>
+        <v>54.30113701619387</v>
       </c>
       <c r="G247" s="11">
-        <v>71.556576680068929</v>
+        <v>80.923394969564725</v>
       </c>
       <c r="H247" s="11">
-        <v>89.523262492820223</v>
+        <v>94.981049730102214</v>
       </c>
       <c r="I247" s="11">
-        <v>96.863871338311313</v>
+        <v>99.058229011140469</v>
       </c>
       <c r="J247" s="11">
-        <v>99.609419873635844</v>
+        <v>99.965544963822211</v>
       </c>
       <c r="K247" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="15">
@@ -8090,7 +8097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="15"/>
@@ -8103,7 +8110,7 @@
       <c r="J249" s="16"/>
       <c r="K249" s="17"/>
     </row>
-    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>56</v>
       </c>
@@ -8114,22 +8121,22 @@
         <v>63</v>
       </c>
       <c r="D250" s="13">
-        <v>1.8089517268310609E-2</v>
+        <v>1.8076074450472993E-2</v>
       </c>
       <c r="E250" s="11">
-        <v>6.3492063492063489</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="F250" s="11">
-        <v>17.460317460317459</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G250" s="11">
-        <v>39.682539682539684</v>
+        <v>61.904761904761905</v>
       </c>
       <c r="H250" s="11">
-        <v>76.19047619047619</v>
+        <v>87.301587301587304</v>
       </c>
       <c r="I250" s="11">
-        <v>96.825396825396822</v>
+        <v>100</v>
       </c>
       <c r="J250" s="11">
         <v>100</v>
@@ -8138,7 +8145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="15">
@@ -8169,7 +8176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>21</v>
       </c>
@@ -8180,22 +8187,22 @@
         <v>197</v>
       </c>
       <c r="D252" s="13">
-        <v>4.5571365452278453E-2</v>
+        <v>4.5548922317122237E-2</v>
       </c>
       <c r="E252" s="11">
-        <v>5.0761421319796955</v>
+        <v>11.167512690355331</v>
       </c>
       <c r="F252" s="11">
-        <v>25.888324873096447</v>
+        <v>43.654822335025379</v>
       </c>
       <c r="G252" s="11">
-        <v>58.375634517766493</v>
+        <v>72.081218274111677</v>
       </c>
       <c r="H252" s="11">
-        <v>87.817258883248726</v>
+        <v>93.401015228426402</v>
       </c>
       <c r="I252" s="11">
-        <v>98.984771573604064</v>
+        <v>100</v>
       </c>
       <c r="J252" s="11">
         <v>100</v>
@@ -8204,7 +8211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="15">
@@ -8235,7 +8242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>21</v>
       </c>
@@ -8246,22 +8253,22 @@
         <v>260</v>
       </c>
       <c r="D254" s="13">
-        <v>3.3309546900482601E-2</v>
+        <v>3.3289416910255575E-2</v>
       </c>
       <c r="E254" s="11">
-        <v>5.384615384615385</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="F254" s="11">
-        <v>23.846153846153847</v>
+        <v>41.153846153846153</v>
       </c>
       <c r="G254" s="11">
-        <v>53.846153846153847</v>
+        <v>69.615384615384613</v>
       </c>
       <c r="H254" s="11">
-        <v>85</v>
+        <v>91.92307692307692</v>
       </c>
       <c r="I254" s="11">
-        <v>98.461538461538467</v>
+        <v>100</v>
       </c>
       <c r="J254" s="11">
         <v>100</v>
@@ -8270,7 +8277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="15">
@@ -8301,7 +8308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -8314,7 +8321,7 @@
       <c r="J256" s="18"/>
       <c r="K256" s="18"/>
     </row>
-    <row r="257" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>57</v>
       </c>
@@ -8325,22 +8332,22 @@
         <v>41</v>
       </c>
       <c r="D257" s="13">
-        <v>1.1772542984138651E-2</v>
+        <v>1.1763794483641152E-2</v>
       </c>
       <c r="E257" s="11">
-        <v>4.8780487804878048</v>
+        <v>9.7560975609756095</v>
       </c>
       <c r="F257" s="11">
-        <v>24.390243902439025</v>
+        <v>36.585365853658537</v>
       </c>
       <c r="G257" s="11">
-        <v>46.341463414634148</v>
+        <v>63.414634146341463</v>
       </c>
       <c r="H257" s="11">
-        <v>65.853658536585371</v>
+        <v>92.682926829268297</v>
       </c>
       <c r="I257" s="11">
-        <v>92.682926829268297</v>
+        <v>100</v>
       </c>
       <c r="J257" s="11">
         <v>100</v>
@@ -8349,7 +8356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="15">
@@ -8380,7 +8387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>21</v>
       </c>
@@ -8391,31 +8398,31 @@
         <v>168</v>
       </c>
       <c r="D259" s="13">
-        <v>3.886289033493797E-2</v>
+        <v>3.8843751011556016E-2</v>
       </c>
       <c r="E259" s="11">
-        <v>5.3571428571428568</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="F259" s="11">
-        <v>16.666666666666664</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="G259" s="11">
-        <v>37.5</v>
+        <v>64.88095238095238</v>
       </c>
       <c r="H259" s="11">
-        <v>64.285714285714292</v>
+        <v>88.095238095238088</v>
       </c>
       <c r="I259" s="11">
-        <v>86.30952380952381</v>
+        <v>98.214285714285708</v>
       </c>
       <c r="J259" s="11">
-        <v>98.80952380952381</v>
+        <v>100</v>
       </c>
       <c r="K259" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="15">
@@ -8446,7 +8453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>21</v>
       </c>
@@ -8457,31 +8464,31 @@
         <v>209</v>
       </c>
       <c r="D261" s="13">
-        <v>2.6775751162311019E-2</v>
+        <v>2.6759569747090057E-2</v>
       </c>
       <c r="E261" s="11">
-        <v>5.2631578947368416</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="F261" s="11">
-        <v>18.181818181818183</v>
+        <v>30.14354066985646</v>
       </c>
       <c r="G261" s="11">
-        <v>39.23444976076555</v>
+        <v>64.593301435406701</v>
       </c>
       <c r="H261" s="11">
-        <v>64.593301435406701</v>
+        <v>88.995215311004785</v>
       </c>
       <c r="I261" s="11">
-        <v>87.559808612440193</v>
+        <v>98.564593301435409</v>
       </c>
       <c r="J261" s="11">
-        <v>99.043062200956939</v>
+        <v>100</v>
       </c>
       <c r="K261" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="15">
@@ -8512,7 +8519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="15"/>
@@ -8525,7 +8532,7 @@
       <c r="J263" s="16"/>
       <c r="K263" s="17"/>
     </row>
-    <row r="264" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>58</v>
       </c>
@@ -8533,34 +8540,34 @@
         <v>20</v>
       </c>
       <c r="C264" s="9">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="D264" s="13">
-        <v>0.60355817933315725</v>
+        <v>0.60368350228246304</v>
       </c>
       <c r="E264" s="11">
-        <v>22.121788772597526</v>
+        <v>26.996197718631176</v>
       </c>
       <c r="F264" s="11">
-        <v>61.417697431018084</v>
+        <v>69.819391634980988</v>
       </c>
       <c r="G264" s="11">
-        <v>87.059942911512849</v>
+        <v>90.922053231939159</v>
       </c>
       <c r="H264" s="11">
-        <v>96.6698382492864</v>
+        <v>97.861216730038024</v>
       </c>
       <c r="I264" s="11">
-        <v>98.858230256898196</v>
+        <v>99.287072243346003</v>
       </c>
       <c r="J264" s="11">
-        <v>99.143672692673647</v>
+        <v>99.382129277566548</v>
       </c>
       <c r="K264" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="15">
@@ -8591,7 +8598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>21</v>
       </c>
@@ -8599,34 +8606,34 @@
         <v>22</v>
       </c>
       <c r="C266" s="9">
-        <v>2819</v>
+        <v>2824</v>
       </c>
       <c r="D266" s="13">
-        <v>0.65211004675113182</v>
+        <v>0.65294495747996539</v>
       </c>
       <c r="E266" s="11">
-        <v>28.307910606598085</v>
+        <v>34.560906515580733</v>
       </c>
       <c r="F266" s="11">
-        <v>69.847463639588497</v>
+        <v>76.770538243626063</v>
       </c>
       <c r="G266" s="11">
-        <v>90.634976942178085</v>
+        <v>92.28045325779037</v>
       </c>
       <c r="H266" s="11">
-        <v>97.020219936147569</v>
+        <v>97.592067988668546</v>
       </c>
       <c r="I266" s="11">
-        <v>98.687477829017382</v>
+        <v>98.973087818696882</v>
       </c>
       <c r="J266" s="11">
-        <v>99.29052855622561</v>
+        <v>99.398016997167133</v>
       </c>
       <c r="K266" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="15">
@@ -8657,7 +8664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>21</v>
       </c>
@@ -8665,34 +8672,34 @@
         <v>23</v>
       </c>
       <c r="C268" s="9">
-        <v>4921</v>
+        <v>4928</v>
       </c>
       <c r="D268" s="13">
-        <v>0.63044723191259577</v>
+        <v>0.63096248666822874</v>
       </c>
       <c r="E268" s="11">
-        <v>25.665515139199353</v>
+        <v>31.331168831168831</v>
       </c>
       <c r="F268" s="11">
-        <v>66.246697825645199</v>
+        <v>73.802759740259745</v>
       </c>
       <c r="G268" s="11">
-        <v>89.107904897378589</v>
+        <v>91.700487012987011</v>
       </c>
       <c r="H268" s="11">
-        <v>96.870554765291601</v>
+        <v>97.706980519480524</v>
       </c>
       <c r="I268" s="11">
-        <v>98.760414549888225</v>
+        <v>99.107142857142861</v>
       </c>
       <c r="J268" s="11">
-        <v>99.227799227799224</v>
+        <v>99.391233766233768</v>
       </c>
       <c r="K268" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="15">
@@ -8723,7 +8730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="15"/>
@@ -8736,7 +8743,7 @@
       <c r="J270" s="16"/>
       <c r="K270" s="17"/>
     </row>
-    <row r="271" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>59</v>
       </c>
@@ -8747,31 +8754,31 @@
         <v>1496</v>
       </c>
       <c r="D271" s="13">
-        <v>0.42955425132369324</v>
+        <v>0.42923503774456495</v>
       </c>
       <c r="E271" s="11">
-        <v>10.026737967914439</v>
+        <v>13.703208556149733</v>
       </c>
       <c r="F271" s="11">
-        <v>30.614973262032088</v>
+        <v>37.5</v>
       </c>
       <c r="G271" s="11">
-        <v>53.67647058823529</v>
+        <v>63.36898395721925</v>
       </c>
       <c r="H271" s="11">
-        <v>74.732620320855617</v>
+        <v>86.163101604278069</v>
       </c>
       <c r="I271" s="11">
-        <v>90.441176470588232</v>
+        <v>96.590909090909093</v>
       </c>
       <c r="J271" s="11">
-        <v>98.262032085561501</v>
+        <v>99.799465240641723</v>
       </c>
       <c r="K271" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="15">
@@ -8802,7 +8809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>21</v>
       </c>
@@ -8813,31 +8820,31 @@
         <v>700</v>
       </c>
       <c r="D273" s="13">
-        <v>0.16192870972890822</v>
+        <v>0.16184896254815007</v>
       </c>
       <c r="E273" s="11">
-        <v>6.1428571428571432</v>
+        <v>9.7142857142857135</v>
       </c>
       <c r="F273" s="11">
-        <v>21.428571428571427</v>
+        <v>32</v>
       </c>
       <c r="G273" s="11">
-        <v>46.285714285714285</v>
+        <v>66</v>
       </c>
       <c r="H273" s="11">
-        <v>73.857142857142861</v>
+        <v>91.714285714285708</v>
       </c>
       <c r="I273" s="11">
-        <v>91.285714285714278</v>
+        <v>99</v>
       </c>
       <c r="J273" s="11">
-        <v>98.571428571428584</v>
+        <v>99.857142857142861</v>
       </c>
       <c r="K273" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="15">
@@ -8868,7 +8875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>21</v>
       </c>
@@ -8879,31 +8886,31 @@
         <v>2196</v>
       </c>
       <c r="D275" s="13">
-        <v>0.28133755766715307</v>
+        <v>0.281167536672774</v>
       </c>
       <c r="E275" s="11">
-        <v>8.7887067395264111</v>
+        <v>12.431693989071038</v>
       </c>
       <c r="F275" s="11">
-        <v>27.686703096539162</v>
+        <v>35.746812386156648</v>
       </c>
       <c r="G275" s="11">
-        <v>51.320582877959929</v>
+        <v>64.207650273224047</v>
       </c>
       <c r="H275" s="11">
-        <v>74.453551912568301</v>
+        <v>87.93260473588343</v>
       </c>
       <c r="I275" s="11">
-        <v>90.710382513661202</v>
+        <v>97.358834244080157</v>
       </c>
       <c r="J275" s="11">
-        <v>98.360655737704917</v>
+        <v>99.817850637522767</v>
       </c>
       <c r="K275" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="15">
@@ -8934,7 +8941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="15"/>
@@ -8947,7 +8954,7 @@
       <c r="J277" s="16"/>
       <c r="K277" s="17"/>
     </row>
-    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>60</v>
       </c>
@@ -8958,31 +8965,31 @@
         <v>2986</v>
       </c>
       <c r="D278" s="13">
-        <v>0.85738569147897592</v>
+        <v>0.856748544589085</v>
       </c>
       <c r="E278" s="11">
-        <v>4.1192230408573343</v>
+        <v>7.937039517749497</v>
       </c>
       <c r="F278" s="11">
-        <v>17.615539182853315</v>
+        <v>26.389819156061623</v>
       </c>
       <c r="G278" s="11">
-        <v>39.082384460817146</v>
+        <v>51.640991292699269</v>
       </c>
       <c r="H278" s="11">
-        <v>65.338245144005356</v>
+        <v>76.557267247153376</v>
       </c>
       <c r="I278" s="11">
-        <v>86.101808439383788</v>
+        <v>92.900200937709315</v>
       </c>
       <c r="J278" s="11">
-        <v>96.55056932350972</v>
+        <v>99.497655726724716</v>
       </c>
       <c r="K278" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="15">
@@ -9013,7 +9020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>21</v>
       </c>
@@ -9024,31 +9031,31 @@
         <v>3145</v>
       </c>
       <c r="D280" s="13">
-        <v>0.72752256013916616</v>
+        <v>0.72716426744847429</v>
       </c>
       <c r="E280" s="11">
-        <v>4.8966613672496022</v>
+        <v>10.333863275039745</v>
       </c>
       <c r="F280" s="11">
-        <v>21.74880763116057</v>
+        <v>32.496025437201908</v>
       </c>
       <c r="G280" s="11">
-        <v>48.139904610492849</v>
+        <v>61.65341812400635</v>
       </c>
       <c r="H280" s="11">
-        <v>73.608903020667725</v>
+        <v>83.465818759936411</v>
       </c>
       <c r="I280" s="11">
-        <v>89.761526232114463</v>
+        <v>95.198728139904603</v>
       </c>
       <c r="J280" s="11">
-        <v>97.233704292527818</v>
+        <v>99.491255961844189</v>
       </c>
       <c r="K280" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="15">
@@ -9079,7 +9086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>21</v>
       </c>
@@ -9090,31 +9097,31 @@
         <v>6131</v>
       </c>
       <c r="D282" s="13">
-        <v>0.78546473864176469</v>
+        <v>0.78499005798760357</v>
       </c>
       <c r="E282" s="11">
-        <v>4.5180231609851571</v>
+        <v>9.1665307453922686</v>
       </c>
       <c r="F282" s="11">
-        <v>19.735769042570542</v>
+        <v>29.522100799217093</v>
       </c>
       <c r="G282" s="11">
-        <v>43.728592399282334</v>
+        <v>56.777034741477742</v>
       </c>
       <c r="H282" s="11">
-        <v>69.580818789756975</v>
+        <v>80.101125428152002</v>
       </c>
       <c r="I282" s="11">
-        <v>87.979122492252486</v>
+        <v>94.07926928722884</v>
       </c>
       <c r="J282" s="11">
-        <v>96.900994943728591</v>
+        <v>99.494372859239931</v>
       </c>
       <c r="K282" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="15">
@@ -9145,7 +9152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="15"/>
@@ -9158,7 +9165,7 @@
       <c r="J284" s="16"/>
       <c r="K284" s="17"/>
     </row>
-    <row r="285" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>61</v>
       </c>
@@ -9166,34 +9173,34 @@
         <v>20</v>
       </c>
       <c r="C285" s="10">
-        <v>348268</v>
+        <v>348527</v>
       </c>
       <c r="D285" s="14">
         <v>100</v>
       </c>
       <c r="E285" s="12">
-        <v>9.2971504703274483</v>
+        <v>14.260588132339819</v>
       </c>
       <c r="F285" s="12">
-        <v>27.342448918648856</v>
+        <v>36.724844847027633</v>
       </c>
       <c r="G285" s="12">
-        <v>51.455775437306905</v>
+        <v>62.853380082461328</v>
       </c>
       <c r="H285" s="12">
-        <v>75.429554251323694</v>
+        <v>85.595950959323091</v>
       </c>
       <c r="I285" s="12">
-        <v>90.937151848576377</v>
+        <v>96.153239203849338</v>
       </c>
       <c r="J285" s="12">
-        <v>97.840743335592123</v>
+        <v>99.663440709041197</v>
       </c>
       <c r="K285" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="15">
@@ -9224,7 +9231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>21</v>
       </c>
@@ -9232,34 +9239,34 @@
         <v>22</v>
       </c>
       <c r="C287" s="9">
-        <v>432289</v>
+        <v>432502</v>
       </c>
       <c r="D287" s="13">
         <v>100</v>
       </c>
       <c r="E287" s="11">
-        <v>8.8357557097219672</v>
+        <v>14.483170020023028</v>
       </c>
       <c r="F287" s="11">
-        <v>28.437688675862677</v>
+        <v>40.035190588714045</v>
       </c>
       <c r="G287" s="11">
-        <v>56.567481476512235</v>
+        <v>68.71228341140619</v>
       </c>
       <c r="H287" s="11">
-        <v>80.817925045513533</v>
+        <v>89.836116364779812</v>
       </c>
       <c r="I287" s="11">
-        <v>93.808308793422924</v>
+        <v>97.643710318102578</v>
       </c>
       <c r="J287" s="11">
-        <v>98.646044659938141</v>
+        <v>99.803237904102176</v>
       </c>
       <c r="K287" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="15">
@@ -9290,7 +9297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
@@ -9298,34 +9305,34 @@
         <v>23</v>
       </c>
       <c r="C289" s="9">
-        <v>780557</v>
+        <v>781029</v>
       </c>
       <c r="D289" s="13">
         <v>100</v>
       </c>
       <c r="E289" s="11">
-        <v>9.041620278852152</v>
+        <v>14.383844902045892</v>
       </c>
       <c r="F289" s="11">
-        <v>27.949015895059553</v>
+        <v>38.557979281179058</v>
       </c>
       <c r="G289" s="11">
-        <v>54.286746515629225</v>
+        <v>66.097801746157955</v>
       </c>
       <c r="H289" s="11">
-        <v>78.413748131142242</v>
+        <v>87.943981593513172</v>
       </c>
       <c r="I289" s="11">
-        <v>92.527259380160572</v>
+        <v>96.978601306737659</v>
       </c>
       <c r="J289" s="11">
-        <v>98.286736266537872</v>
+        <v>99.740854692975546</v>
       </c>
       <c r="K289" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="15">
@@ -9356,7 +9363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -9369,29 +9376,31 @@
       <c r="J291" s="18"/>
       <c r="K291" s="18"/>
     </row>
-    <row r="292" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="E10:K10"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
@@ -9414,18 +9423,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9613,15 +9622,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D384F297-C31F-4506-8D7E-0931CFDFF966}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A7A005-497C-4D3E-A2F4-7289CB3C1301}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{697F1649-0361-473E-9E77-06340C3D67CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -9629,8 +9630,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB502984-0900-483E-A4A6-1F3E007C6138}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB0A8F7-6818-4F8F-A375-4FB1C1168226}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04665E4E-8820-4354-AB40-75866EA3ED2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
